--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DataStructure" sheetId="1" r:id="rId1"/>
+    <sheet name="ControlFlow" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +88,97 @@
   </si>
   <si>
     <t>import types;  type(obj)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for w in words: 
+   print w, len(w)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if x &lt; 0:
+   print "abc"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$aR=\@array; $aR=[v,v,v]; 
+$aR-&gt;[0]; ${$aR}[0];
+deref: @{$aR}; @$aR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$hR={k=&gt;v};  $hR-&gt;{k}=v;f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%hash=(key=&gt;'value',key=&gt;'value')
+for $k in (keys %hash) { 
+  print $hash{$k}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @arr=(v,v,v); $arr[0];
+ @num=(1..20); @alpha=("a".."z");
+ push(@arr,v); 
+ unshift(@arr,v);
+ pop(@arr,v);
+ shift(@arr);
+ $str=join(",",@arr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Scalar; @arr;%hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number,String,List,Tupel,Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuples (sequence)
+(read only list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">t=(12,34,"124")
+t[0]  t[1:3] t[2:]
+del t
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">list=[v,v,v]
+list[0]  list[1:3] list[2:]
+del list[0]
+function:
+cmp(list1,list2)  len(list) max(list) min(list) list(turple)
+methods:
+list.append() list.count() list.extend() list.index() list.insert() list.pop() list.remove() list.reverse()
+list.sort()
+for i in list: 
+  print i
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict={key:value, key:value}
+dict[k]
+del dict 
+for k,v in dict.iteritems():
+  print k, v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   List::Tuples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +202,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD2A000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +247,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,16 +276,67 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD2A000"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,104 +625,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="273.60000000000002">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="117" customHeight="1">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.8" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="62.4" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="124.2" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="112.2" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="13" spans="1:6" ht="28.8">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -551,13 +794,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272"/>
   </bookViews>
   <sheets>
-    <sheet name="DataStructure" sheetId="1" r:id="rId1"/>
-    <sheet name="ControlFlow" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Operators" sheetId="4" r:id="rId1"/>
+    <sheet name="DataStructure" sheetId="1" r:id="rId2"/>
+    <sheet name="ControlFlow" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +61,6 @@
   </si>
   <si>
     <t>If</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get DataType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -179,6 +176,134 @@
   </si>
   <si>
     <t xml:space="preserve">   List::Tuples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Referenc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get methods of obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for ($i=1;$i&lt;5;$i++) {print $i;}
+foreach $i (@arr){print $i;}
+while ($c&lt;7) { print $c; $c++
+next;contine;last;redo
+} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for w in words: 
+   print w, len(w)
+for I in range[5]
+   print I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (ture){ 
+  print 1;
+} elsif (ture){
+  print 2;
+} else {
+  print 3;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if x &lt; 0:
+   print "abc"
+elif x==0:
+   print "efg"
+else:
+   print "h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==, eq 
+ !=, ne
+ &lt;,lt
+ &gt;,gt
+ &lt;=,le
+ &gt;=, ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;, and
+||, or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> == != &lt; &gt; &lt;= &gt;= </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &amp;b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit exclusive or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a ^ v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a | b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a is b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">identity </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a is not b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &lt;&lt; b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &gt;&gt; b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit inversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +433,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -625,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -659,18 +847,148 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="105" customHeight="1">
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="156.6" customHeight="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="273.60000000000002">
@@ -678,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="117" customHeight="1">
@@ -689,50 +1007,42 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="46.8" customHeight="1">
       <c r="B5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="62.4" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="124.2" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="112.2" customHeight="1">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8">
@@ -743,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8">
@@ -751,26 +1061,18 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A1:XFD9 A11:XFD17 A19:XFD1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -779,25 +1081,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="156.6" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -829,41 +1195,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:6" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7"/>
+    <row r="4" spans="1:6" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="86.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -871,9 +1235,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -881,9 +1243,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
@@ -891,9 +1251,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -902,7 +1260,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD4">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DataStructure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,14 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Controll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,16 +73,6 @@
   </si>
   <si>
     <t>import types;  type(obj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for w in words: 
-   print w, len(w)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if x &lt; 0:
-   print "abc"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,13 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>for w in words: 
-   print w, len(w)
-for I in range[5]
-   print I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if (ture){ 
   print 1;
 } elsif (ture){
@@ -304,6 +275,109 @@
   </si>
   <si>
     <t>~ a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> + - * /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and or not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in
+not in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use Switch;
+switch ($val) {
+  case 1 {print "1"}
+  case 2 {print "2"}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for w in words: 
+   print w, len(w)
+   break
+   continue
+   pass
+for I in range[5]
+   print I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,40 +502,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -813,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="B3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -830,9 +900,9 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" customHeight="1">
+    <row r="1" spans="2:6" ht="75" customHeight="1">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -847,92 +917,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="2:6" ht="105" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="156.6" customHeight="1">
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1" t="s">
+      <c r="D8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="28.8">
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
+  <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -943,136 +1085,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:6" s="9" customFormat="1" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="9" customFormat="1">
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" s="9" customFormat="1" ht="273.60000000000002">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" s="9" customFormat="1" ht="117" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" s="9" customFormat="1" ht="46.8" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="273.60000000000002">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="117" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="46.8" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="62.4" customHeight="1">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="124.2" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="112.2" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:6" s="9" customFormat="1" ht="62.4" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8">
-      <c r="B13" s="1" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" s="9" customFormat="1" ht="124.2" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6" s="9" customFormat="1" ht="112.2" customHeight="1">
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="12" spans="2:6" s="9" customFormat="1">
+      <c r="C12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" s="9" customFormat="1">
+      <c r="C13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD9 A11:XFD17 A19:XFD1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1085,66 +1230,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="75" customHeight="1">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>35</v>
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="156.6" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>37</v>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72">
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1334,7 @@
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1195,7 +1351,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1205,10 +1361,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -1216,10 +1372,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1260,17 +1416,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F8">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> == != &lt; &gt; &lt;= &gt;= </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a &amp;b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
   </si>
   <si>
     <t>a is b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">identity </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +328,6 @@
   </si>
   <si>
     <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -378,6 +366,26 @@
    pass
 for I in range[5]
    print I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> == 
+ !=   &lt;&gt; (similar)
+ &lt; &gt; 
+ &lt;= &gt;= 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitwise operators</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,15 +891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="B3:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
@@ -900,7 +908,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="75" customHeight="1">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,165 +925,173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="105" customHeight="1">
+    <row r="3" spans="1:6" ht="105" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="156.6" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="28.8">
-      <c r="B11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1087,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1230,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1267,10 +1283,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>30</v>
@@ -1289,13 +1305,13 @@
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1306,7 +1322,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1318,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1415,18 +1431,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F8">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A1:F8 A3:XFD4">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
     <sheet name="DataStructure" sheetId="1" r:id="rId2"/>
     <sheet name="ControlFlow" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="oneLine Cmd" sheetId="3" r:id="rId4"/>
+    <sheet name="Common Mistask" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,12 +389,61 @@
     <t>Bitwise operators</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Unicode String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u'Hello world"
+u'Hello\u0020World"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list Module defines names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import __builtin__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shallow Copy（指针 copy， 无意中修改了别的使用同样地址的变量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Race_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Software_bug#Arithmetic_bugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +495,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,12 +535,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,11 +596,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1091,7 +1163,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1104,7 +1176,7 @@
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1118,7 +1190,7 @@
     <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="9" customFormat="1" ht="75" customHeight="1">
+    <row r="1" spans="2:6" ht="75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="9" customFormat="1">
+    <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1145,10 +1217,8 @@
       <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="2:6" s="9" customFormat="1" ht="273.60000000000002">
+    </row>
+    <row r="3" spans="2:6" ht="273.60000000000002">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1158,10 +1228,8 @@
       <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:6" s="9" customFormat="1" ht="117" customHeight="1">
+    </row>
+    <row r="4" spans="2:6" ht="117" customHeight="1">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1171,10 +1239,8 @@
       <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" s="9" customFormat="1" ht="46.8" customHeight="1">
+    </row>
+    <row r="5" spans="2:6" ht="46.8" customHeight="1">
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
@@ -1184,56 +1250,46 @@
       <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" s="9" customFormat="1" ht="62.4" customHeight="1">
+    </row>
+    <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="2:6" s="9" customFormat="1" ht="124.2" customHeight="1">
+    </row>
+    <row r="7" spans="2:6" ht="124.2" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
       <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="2:6" s="9" customFormat="1" ht="112.2" customHeight="1">
+    </row>
+    <row r="8" spans="2:6" ht="112.2" customHeight="1">
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="12" spans="2:6" s="9" customFormat="1">
+    </row>
+    <row r="9" spans="2:6" ht="52.2" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" s="9" customFormat="1">
+    </row>
+    <row r="13" spans="2:6">
       <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD9 A11:XFD17 A19:XFD1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1246,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1322,7 +1378,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1334,13 +1390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
@@ -1369,7 +1425,9 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -1379,6 +1437,9 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1388,6 +1449,9 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1400,7 +1464,9 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1431,11 +1497,75 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F8 A3:XFD4">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A3:XFD4 A1:F8">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2" location="Arithmetic_bugs"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="4"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,17 @@
     <sheet name="ControlFlow" sheetId="2" r:id="rId3"/>
     <sheet name="oneLine Cmd" sheetId="3" r:id="rId4"/>
     <sheet name="Common Mistask" sheetId="5" r:id="rId5"/>
+    <sheet name="Factors" sheetId="6" r:id="rId6"/>
+    <sheet name="Code Style" sheetId="7" r:id="rId7"/>
+    <sheet name="Std Libraries" sheetId="8" r:id="rId8"/>
+    <sheet name="framework" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +77,6 @@
   </si>
   <si>
     <t>import types;  type(obj)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +128,368 @@
 t[0]  t[1:3] t[2:]
 del t
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   List::Tuples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Referenc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get methods of obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for ($i=1;$i&lt;5;$i++) {print $i;}
+foreach $i (@arr){print $i;}
+while ($c&lt;7) { print $c; $c++
+next;contine;last;redo
+} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (ture){ 
+  print 1;
+} elsif (ture){
+  print 2;
+} else {
+  print 3;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if x &lt; 0:
+   print "abc"
+elif x==0:
+   print "efg"
+else:
+   print "h"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==, eq 
+ !=, ne
+ &lt;,lt
+ &gt;,gt
+ &lt;=,le
+ &gt;=, ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;&amp;, and
+||, or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &amp;b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit exclusive or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a ^ v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a | b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a is b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a is not b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &lt;&lt; b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a &gt;&gt; b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit inversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> + - * /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and or not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in
+not in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use Switch;
+switch ($val) {
+  case 1 {print "1"}
+  case 2 {print "2"}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for w in words: 
+   print w, len(w)
+   break
+   continue
+   pass
+for I in range[5]
+   print I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arithmetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> == 
+ !=   &lt;&gt; (similar)
+ &lt; &gt; 
+ &lt;= &gt;= 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitwise operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unicode String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u'Hello world"
+u'Hello\u0020World"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list Module defines names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import __builtin__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组越界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shallow Copy（指针 copy， 无意中修改了别的使用同样地址的变量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Race_condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Software_bug#Arithmetic_bugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass by reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a, pass by value only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
+print foo
+[2, 4 , 6, 8 ,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute system methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lazy evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidden features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argument unpacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular expression debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import re
+re.compile("^\[font(?:=(?P&lt;size&gt;[-+][0-9]{1,2}))?\](.*?)[/font]", re.DEBUG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try:
+  put_4000000000_volts_through_it(parrot)
+except Voom:
+  print "'E's pining!"
+else:
+  print "This parrot is no more!"
+finally:
+  end_sketch()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">while True:
+    try:
+        x = int(raw_input("Please enter a number: "))
+        break
+    except ValueError:
+        print "Oops!  That was no valid number.  Try again..."
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list comprehensions
+构建list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,9 +501,19 @@
 methods:
 list.append() list.count() list.extend() list.index() list.insert() list.pop() list.remove() list.reverse()
 list.sort()
+list.pop()
 for i in list: 
   print i
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sets(unordered collection with no duplicate elements)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> basket = ['apple', 'orange', 'apple', 'pear', 'orange', 'banana']
+&gt;&gt;&gt; fruit = set(basket)               # create a set without duplicates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,292 +521,154 @@
 dict[k]
 del dict 
 for k,v in dict.iteritems():
-  print k, v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   List::Tuples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Referenc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get methods of obj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">for ($i=1;$i&lt;5;$i++) {print $i;}
-foreach $i (@arr){print $i;}
-while ($c&lt;7) { print $c; $c++
-next;contine;last;redo
-} </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (ture){ 
-  print 1;
-} elsif (ture){
-  print 2;
-} else {
-  print 3;
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if x &lt; 0:
-   print "abc"
-elif x==0:
-   print "efg"
-else:
-   print "h"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==, eq 
- !=, ne
- &lt;,lt
- &gt;,gt
- &lt;=,le
- &gt;=, ge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;&amp;, and
-||, or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a &amp;b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit exclusive or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit and</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a ^ v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a | b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a is b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a is not b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a &lt;&lt; b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>right shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a &gt;&gt; b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit inversion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> + - * /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floor division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Logical operators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>and or not</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>membership operators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in
-not in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use Switch;
-switch ($val) {
-  case 1 {print "1"}
-  case 2 {print "2"}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for w in words: 
-   print w, len(w)
-   break
-   continue
-   pass
-for I in range[5]
-   print I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arithmetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comparision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> == 
- !=   &lt;&gt; (similar)
- &lt; &gt; 
- &lt;= &gt;= 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bitwise operators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unicode String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u'Hello world"
-u'Hello\u0020World"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list Module defines names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>import __builtin__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组越界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shallow Copy（指针 copy， 无意中修改了别的使用同样地址的变量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Race_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Software_bug#Arithmetic_bugs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多进程</t>
+  print k, v
+dict[newK]=newV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if x == Ture (bad)
+if x (good)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if x==0 (bad) (might typo be x=0)
+if 0==x (good)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; "a".join("ccc")
+'cacac'
+&gt;&gt;&gt; "ccc".join("a")
+'a'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file line interating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file = open("sample.txt")
+while 1:
+    line = file.readline()
+    if not line:
+        break
+    pass # do something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unittests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocTests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipfile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>networking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optparse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debugger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDB: import pdb
+pdb.run('mymodule.test()')
+pdb.set_trace()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get object properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj.__getattribute__ (self,name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj.__setattr__(self,name,value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj._delattr(self,name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construnction method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj.__new__(cls[, …]
+obj.__init__(self[, …])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need instance, invoke: class.method()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django, Zope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI frameworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tkinter, wx, pykde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; assert( 1&gt;0 ), "hah"
+&gt;&gt;&gt; assert( 1&lt;0 ), "hah"
+Traceback (most recent call last):
+  File "&lt;stdin&gt;", line 1, in &lt;module&gt;
+AssertionError: hah
+&gt;&gt;&gt; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +744,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -534,6 +767,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,7 +788,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,12 +843,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -965,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -999,171 +1281,171 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1173,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1209,24 +1491,24 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="273.60000000000002">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="288">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -1234,26 +1516,29 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="46.8" customHeight="1">
       <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>101</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -1261,35 +1546,44 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="124.2" customHeight="1">
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" ht="112.2" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="112.2" customHeight="1">
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="52.2" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="14"/>
+    <row r="10" spans="2:6" ht="52.2" customHeight="1">
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="C13" s="14"/>
     </row>
+    <row r="14" spans="2:6">
+      <c r="C14" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD9 A11:XFD17 A19:XFD1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+  <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1302,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1336,16 +1630,16 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="156.6" customHeight="1">
@@ -1353,21 +1647,21 @@
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1378,7 +1672,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1388,10 +1682,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1423,10 +1720,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="4"/>
@@ -1449,10 +1746,10 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -1465,16 +1762,22 @@
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1482,7 +1785,9 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -1490,15 +1795,25 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
+    <row r="9" spans="1:6" ht="28.8">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD4 A1:F8">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A3:XFD4 A1:F8 C9">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1510,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1522,42 +1837,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1568,4 +1883,549 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="86.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="129.6">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="100.8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="115.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F24">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" customHeight="1">
+      <c r="C3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="156.6" customHeight="1">
+      <c r="C4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6">
+      <c r="C5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,12 +421,6 @@
   </si>
   <si>
     <t>n/a, pass by value only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
-print foo
-[2, 4 , 6, 8 ,10]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -555,15 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file = open("sample.txt")
-while 1:
-    line = file.readline()
-    if not line:
-        break
-    pass # do something</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unittests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,6 +654,176 @@
   File "&lt;stdin&gt;", line 1, in &lt;module&gt;
 AssertionError: hah
 &gt;&gt;&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; class MyError(Exception):
+...     def __init__(self, value):
+...         self.value = value
+...     def __str__(self):
+...         return repr(self.value)
+...
+&gt;&gt;&gt; try:
+...     raise MyError(2*2)
+... except MyError as e:
+...     print 'My exception occurred, value:', e.value
+...
+My exception occurred, value: 4
+&gt;&gt;&gt; raise MyError('oops!')
+Traceback (most recent call last):
+  File "&lt;stdin&gt;", line 1, in ?
+__main__.MyError: 'oops!'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import doctest
+doctest.testfile("example.txt")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if __name__ == "__main__":
+    #run Test
+    import doctest
+    doctest.testmod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file = open("sample.txt")
+line = file.readline()
+while line:
+    pass # do something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
+print foo
+[2, 4 , 6, 8 ,10]
+range(2,11,2)    
+list(range(2,11,2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decorators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @f1(arg)
+ @f2
+ def func(): pass
+equivalent to:
+ def func(): pass
+ func = f1(arg)(f2(func))
+----
+def makebold(fn):
+    def wrapped():
+        return "&lt;b&gt;" + fn() + "&lt;/b&gt;"
+    return wrapped
+def makeitalic(fn):
+    def wrapped():
+        return "&lt;i&gt;" + fn() + "&lt;/i&gt;"
+    return wrapped
+@makebold
+@makeitalic
+def hello():
+    return "hello world"
+print hello() ## returns &lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>define functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def fib(n):
+  a,b=0,1
+  …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from subprocess import call
+call(["ls","-l"])
+os.system("ls -l")
+stream=os.popen("ls -l")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void f(int n) { return n * 2; }
+void g(Action&lt;int&gt; a, int n) { return a(n); }
+// Now call g and pass f:
+g(f, 10); // = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-class object
+“First class” means you can operate on them in the usual manner. Most of the times, this just means you can pass these first-class citizens as arguments to functions, or return them from functions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Referenc: 当一个对象的所有引用都是 weak ref，garbage collection 会销毁对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A function which returns an iterator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; b='1'
+&gt;&gt;&gt; b
+'1'
+&gt;&gt;&gt; eval(b)
+1
+&gt;&gt;&gt; b='1+1'
+&gt;&gt;&gt; eval(b)
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec
+ is a statement, not an expression. It compiles and immediately evaluates a statement or set of statement contained in a string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s="print 1"
+&gt;&gt;&gt; exec s
+1
+&gt;&gt;&gt; b='1+1'
+&gt;&gt;&gt; eval(b)
+2
+&gt;&gt;&gt; exec b
+&gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval
+eval evaluates an expression (not a statement) and returns the value that expression produces.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +943,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +1000,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1245,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:CU17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1256,10 +1423,11 @@
     <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="99" width="8.88671875" style="22"/>
+    <col min="100" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
@@ -1505,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -1516,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
@@ -1535,10 +1703,10 @@
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -1551,10 +1719,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -1583,7 +1751,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1685,10 +1853,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1758,37 +1926,37 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" s="19" customFormat="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>122</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
@@ -1796,24 +1964,34 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8">
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>126</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8">
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD4 A1:F8 C9">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1890,22 +2068,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1921,147 +2099,153 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:6" ht="115.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="129.6">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="43.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>86</v>
-      </c>
+    <row r="6" spans="1:6" ht="72">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="7" spans="1:6" ht="201.6">
+      <c r="B7" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="86.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>90</v>
+      <c r="B12" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="86.4">
+    <row r="13" spans="1:6" ht="43.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>134</v>
+      <c r="B13" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="129.6">
+    <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>97</v>
+      <c r="B14" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="100.8">
+    <row r="15" spans="1:6" ht="43.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>109</v>
+      <c r="B15" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -2069,95 +2253,174 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="B16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:6" ht="57.6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="43.2">
+    <row r="18" spans="1:6" ht="230.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
-        <v>93</v>
+      <c r="B18" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="115.2">
+    <row r="19" spans="1:6" ht="86.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>95</v>
+      <c r="B19" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="115.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="57.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="43.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
+    <row r="25" spans="1:6" ht="115.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="360">
+      <c r="A28" s="1"/>
+      <c r="B28" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F24">
+  <conditionalFormatting sqref="A1:F6 A8:F30">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -2171,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2205,21 +2468,29 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="56.4" customHeight="1">
+      <c r="C4" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="156.6" customHeight="1">
-      <c r="C4" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
@@ -2229,7 +2500,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2242,7 +2513,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,53 +2546,55 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2367,62 +2640,62 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Code Style" sheetId="7" r:id="rId7"/>
     <sheet name="Std Libraries" sheetId="8" r:id="rId8"/>
     <sheet name="framework" sheetId="9" r:id="rId9"/>
+    <sheet name="Tech" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,6 +825,84 @@
   <si>
     <t>eval
 eval evaluates an expression (not a statement) and returns the value that expression produces.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#!/usr/bin/python
+class Employee:
+   'Common base class for all employees'
+   empCount = 0
+   def __init__(self, name, salary):
+      self.name = name
+      self.salary = salary
+      Employee.empCount += 1
+   def displayCount(self):
+     print "Total Employee %d" % Employee.empCount
+   def displayEmployee(self):
+      print "Name : ", self.name,  ", Salary: ", self.salary
+"This would create first object of Employee class"
+emp1 = Employee("Zara", 2000)
+"This would create second object of Employee class"
+emp2 = Employee("Manni", 5000)
+emp1.displayEmployee()
+emp2.displayEmployee()
+print "Total Employee %d" % Employee.empCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void PyOS_AfterFork()
+int PyOS_CheckStack()
+int Py_AtExit(void (*func) ())
+void Py_FatalError(const char *message)
+void Py_Exit(int status)
+int Py_AtExit(void (*func) ())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flavors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpython, Jython, PyPy, IronPython
+ Except for some standard modules, Jython programs use Java classes instead of Python modules. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void* PyMem_Malloc(size_t n)
+void* PyMem_Realloc(void *p, size_t n)
+void pyMem_Free(void *p)
+TYPE* PyMem_New(TYPE, size_t n)
+TYPE* PyMem_Resize(void *p, TYPE, size_t n)
+void PyMem_Del(void *p)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,21 +1097,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1414,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CU17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1678,93 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="56.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="53.4" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="55.8" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" ht="95.4" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" ht="100.8">
+      <c r="B6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="57.6">
+      <c r="B7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1751,7 +1902,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1840,7 +1991,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,7 +2142,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C10">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2070,14 +2221,14 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="21" customWidth="1"/>
     <col min="3" max="3" width="67.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2145,7 +2296,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="72">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,7 +2308,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="201.6">
+    <row r="7" spans="1:6" ht="100.8">
       <c r="B7" s="21" t="s">
         <v>150</v>
       </c>
@@ -2405,10 +2556,14 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="360">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -2416,12 +2571,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F6 A8:F30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2433,6 +2588,178 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" customHeight="1">
+      <c r="C3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="56.4" customHeight="1">
+      <c r="C4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6">
+      <c r="C5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2449,84 +2776,6 @@
     <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" customHeight="1">
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1">
-      <c r="C3" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="56.4" customHeight="1">
-      <c r="C4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="57.6">
-      <c r="C5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F10"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20" style="9" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="2:6" ht="75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>4</v>
@@ -2544,19 +2793,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="105" customHeight="1">
+    <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+    <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -2591,111 +2842,28 @@
         <v>116</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20" style="9" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="75" customHeight="1">
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="105" customHeight="1">
-      <c r="B3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" ht="156.6" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="9" t="s">
-        <v>116</v>
+    <row r="12" spans="2:6" ht="57.6">
+      <c r="B12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,6 +903,64 @@
 TYPE* PyMem_New(TYPE, size_t n)
 TYPE* PyMem_Resize(void *p, TYPE, size_t n)
 void PyMem_Del(void *p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time.sleep(secs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.random()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiprocessing
+from multiprocessing import Process, Lock
+using subprocesses instead of threads
+p=Process(targe=f, args(num,arr))
+p.start()  p.join() p.run() p.is_alive()  p.live()
+Synchronization:
+lock： l=Lock()  l.acquire()  l.release()
+Sharing state, Shared memory:
+from multiprocessing impport Process,Value,array
+Exchaning object:
+from multiprocessing import Process, Queue, Pope
+q=Queue()  q.put()  q.get()
+parent_conn, child_conn= Pipe()
+child_conn.send([1,2,3])
+print parent_conn.recv()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lib/threading.py
+t.start()
+t.run()
+t.join()
+wait()  notify()  notifyAll() release()
+from threading import Condition
+# Consume one item
+cv.acquire()
+while not an_item_is_available():
+    cv.wait()
+get_an_available_item()
+cv.release()
+# Produce one item
+cv.acquire()
+make_an_item_available()
+cv.notify()
+cv.release()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1080,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1090,6 +1148,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1729,41 +1790,52 @@
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:6" ht="55.8" customHeight="1">
+    <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:6" ht="95.4" customHeight="1">
+    <row r="5" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" ht="95.4" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" ht="100.8">
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" ht="100.8">
+      <c r="B7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="57.6">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="2:6" ht="57.6">
+      <c r="B8" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -2004,10 +2076,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2139,9 +2211,25 @@
         <v>124</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10">
+  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10 C12">
     <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Std Libraries" sheetId="8" r:id="rId8"/>
     <sheet name="framework" sheetId="9" r:id="rId9"/>
     <sheet name="Tech" sheetId="10" r:id="rId10"/>
+    <sheet name="oo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +962,37 @@
 make_an_item_available()
 cv.notify()
 cv.release()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">class unittest.TestCase(methodName='runTest')
+setUp(), teardown(), setUpClass(), tearDownClass(),run(),assertTure(), assertEqual(), assertIs(),fail(), addCleanUp(), doCleanUp()..
+class unittest.TestSuite(tests=())
+addTest(test),run(),debug()
+class unittest.TestLoader
+loadTestsFromTestCase(testCaseClass)
+loadTestsFromModule(module)
+class unittest.TestResult
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import unittest
+class Test(unittest.TestCase):
+    @classmethod
+    def setUpClass(cls):
+        cls._connection = createExpensiveConnectionObject()
+    @classmethod
+    def tearDownClass(cls):
+        cls._connection.destroy()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singal Handle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1190,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1739,7 +1778,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1751,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1836,11 +1875,78 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="158.4">
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105" customHeight="1">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="D5" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1974,7 +2080,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2063,7 +2169,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2230,7 +2336,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C10 C12">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2307,10 +2413,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2536,82 +2642,84 @@
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="115.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="57.6">
+    <row r="21" spans="1:6" ht="115.2">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="57.6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="43.2">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="115.2">
+    <row r="25" spans="1:6" ht="43.2">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="115.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
@@ -2624,47 +2732,55 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="360">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
-      <c r="B28" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="360">
       <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="360">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
-      <c r="B30" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
+    <row r="31" spans="1:6" ht="360">
+      <c r="A31" s="1"/>
+      <c r="B31" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F6 A8:F30">
-    <cfRule type="expression" dxfId="7" priority="2">
+  <conditionalFormatting sqref="A1:F6 A8:F31">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2743,7 +2859,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2837,7 +2953,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2847,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1:F1 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2943,15 +3059,23 @@
         <v>169</v>
       </c>
     </row>
+    <row r="14" spans="2:6" ht="297" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,78 @@
   </si>
   <si>
     <t>Singal Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def f(x):
+    return x + 3
+def g(function, x):
+    return function(x) * function(x)
+print g(f, 7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you create a list, you can read its items one by one, and it's called iteration:
+&gt;&gt;&gt; mylist = [1, 2, 3]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+1
+2
+3
+Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
+&gt;&gt;&gt; mylist = [x*x for x in range(3)]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+0
+1
+4
+Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterables
+Store all the values in memeory
+Can read as much as you wish
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generators are iterators, but you can only iterate over them once. It's because they do not store all the values in memory, they generate the values on the fly:
+&gt;&gt;&gt; mygenerator = (x*x for x in range(3))
+&gt;&gt;&gt; for i in mygenerator:
+...    print(i)
+0
+1
+4
+It just the same except you used () instead of []. BUT, you can not perform for i in mygenerator a second time since generators can only be used once: they calculate 0, then forget about it and calculate 1 and ends calculating 4, one by one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield is a keyword that is used like return, except the function will return a generator.
+&gt;&gt;&gt; def createGenerator():
+...    mylist = range(3)
+...    for i in mylist:
+...        yield i*i
+...
+&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
+&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
+&lt;generator object createGenerator at 0xb7555c34&gt;
+&gt;&gt;&gt; for i in mygenerator:
+...     print(i)
+0
+1
+4
+Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
+To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
+Then, your code will be run each time the for uses the generator.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,14 +1262,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1579,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CU17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1778,7 +1843,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1788,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1872,10 +1937,18 @@
         <v>165</v>
       </c>
     </row>
+    <row r="9" spans="2:6" ht="100.8">
+      <c r="B9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1888,7 +1961,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1941,7 +2014,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1954,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2080,7 +2153,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2169,7 +2242,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2179,13 +2252,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2336,7 +2406,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C10 C12">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2413,10 +2483,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2468,12 +2538,14 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="331.2">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -2481,105 +2553,105 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="28.8">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="1:6" ht="388.8">
+      <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="100.8">
-      <c r="B7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="86.4">
-      <c r="A8" s="1"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+    <row r="9" spans="1:6" ht="100.8">
+      <c r="B9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="86.4">
       <c r="A10" s="1"/>
       <c r="B10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="216">
       <c r="A11" s="1"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="43.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="86.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -2587,167 +2659,171 @@
     <row r="15" spans="1:6" ht="43.2">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="86.4">
       <c r="A16" s="1"/>
       <c r="B16" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="57.6">
+    <row r="17" spans="1:6" ht="43.2">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="230.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="86.4">
+    <row r="19" spans="1:6" ht="57.6">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="230.4">
       <c r="A20" s="1"/>
       <c r="B20" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="115.2">
+    <row r="21" spans="1:6" ht="86.4">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="57.6">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="115.2">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>90</v>
-      </c>
+    <row r="24" spans="1:6" ht="57.6">
+      <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="43.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="115.2">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="43.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="115.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="360">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -2755,7 +2831,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
@@ -2763,24 +2839,39 @@
     <row r="31" spans="1:6" ht="360">
       <c r="A31" s="1"/>
       <c r="B31" s="20" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="360">
+      <c r="A33" s="1"/>
+      <c r="B33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F6 A8:F31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:F8 A10:F33 C9">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2859,7 +2950,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2953,7 +3044,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2966,7 +3057,7 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:F1 A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3070,12 +3161,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="197">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,6 +1065,55 @@
 Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
 To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
 Then, your code will be run each time the for uses the generator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply a package: a namespace containing variables and subroutines.
+Each package contains a special array @ISA which contains a list of that class's parent class
+All class inherit from UNIVERSAL class which is implemented by Pelr core, has isa(), can(), VERSION()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Subroutine. Declared with sub.
+  sub save {
+      my $self = shift;
+      open my $fh, '&gt;', $self-&gt;path() or die $!;
+      print {$fh} $self-&gt;data()       or die $!;
+      close $fh                       or die $!;
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inheritance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ISA
+call methods that object isn't defined, Perl will look that method in any parent classes it may have.
+  package File::MP3;
+  use parent 'File';    # sets @File::MP3::ISA = ('File');
+  my $mp3 = File::MP3-&gt;new( 'Andvari.mp3', $data );
+  $mp3-&gt;save();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUPER::save($thing);     # FAIL: looks for save() sub in package SUPER
+  SUPER-&gt;save($thing);     # FAIL: looks for save() method in class
+                           #       SUPER
+  $thing-&gt;SUPER::save();   # Okay: looks for save() method in parent
+                           #       classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Data Structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1958,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1992,29 +2041,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="158.4">
+    <row r="2" spans="2:6" ht="75" customHeight="1">
       <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="158.4">
+      <c r="B3" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="105" customHeight="1">
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" ht="156.6" customHeight="1">
+      <c r="D3" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="172.8">
+      <c r="B4" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="D5" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="158.4">
+      <c r="B6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2485,8 +2560,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2560,7 +2635,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="388.8">
+    <row r="6" spans="1:6" ht="408.6" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
         <v>152</v>
@@ -2616,7 +2691,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="216">
+    <row r="11" spans="1:6" ht="259.8" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
         <v>87</v>
@@ -2871,7 +2946,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F8 A10:F33 C9">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Std Libraries" sheetId="8" r:id="rId8"/>
     <sheet name="framework" sheetId="9" r:id="rId9"/>
     <sheet name="Tech" sheetId="10" r:id="rId10"/>
+    <sheet name="oo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="197">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,6 +904,216 @@
 TYPE* PyMem_New(TYPE, size_t n)
 TYPE* PyMem_Resize(void *p, TYPE, size_t n)
 void PyMem_Del(void *p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time.sleep(secs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.random()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiprocessing
+from multiprocessing import Process, Lock
+using subprocesses instead of threads
+p=Process(targe=f, args(num,arr))
+p.start()  p.join() p.run() p.is_alive()  p.live()
+Synchronization:
+lock： l=Lock()  l.acquire()  l.release()
+Sharing state, Shared memory:
+from multiprocessing impport Process,Value,array
+Exchaning object:
+from multiprocessing import Process, Queue, Pope
+q=Queue()  q.put()  q.get()
+parent_conn, child_conn= Pipe()
+child_conn.send([1,2,3])
+print parent_conn.recv()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lib/threading.py
+t.start()
+t.run()
+t.join()
+wait()  notify()  notifyAll() release()
+from threading import Condition
+# Consume one item
+cv.acquire()
+while not an_item_is_available():
+    cv.wait()
+get_an_available_item()
+cv.release()
+# Produce one item
+cv.acquire()
+make_an_item_available()
+cv.notify()
+cv.release()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">class unittest.TestCase(methodName='runTest')
+setUp(), teardown(), setUpClass(), tearDownClass(),run(),assertTure(), assertEqual(), assertIs(),fail(), addCleanUp(), doCleanUp()..
+class unittest.TestSuite(tests=())
+addTest(test),run(),debug()
+class unittest.TestLoader
+loadTestsFromTestCase(testCaseClass)
+loadTestsFromModule(module)
+class unittest.TestResult
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import unittest
+class Test(unittest.TestCase):
+    @classmethod
+    def setUpClass(cls):
+        cls._connection = createExpensiveConnectionObject()
+    @classmethod
+    def tearDownClass(cls):
+        cls._connection.destroy()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singal Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def f(x):
+    return x + 3
+def g(function, x):
+    return function(x) * function(x)
+print g(f, 7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you create a list, you can read its items one by one, and it's called iteration:
+&gt;&gt;&gt; mylist = [1, 2, 3]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+1
+2
+3
+Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
+&gt;&gt;&gt; mylist = [x*x for x in range(3)]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+0
+1
+4
+Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterables
+Store all the values in memeory
+Can read as much as you wish
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generators are iterators, but you can only iterate over them once. It's because they do not store all the values in memory, they generate the values on the fly:
+&gt;&gt;&gt; mygenerator = (x*x for x in range(3))
+&gt;&gt;&gt; for i in mygenerator:
+...    print(i)
+0
+1
+4
+It just the same except you used () instead of []. BUT, you can not perform for i in mygenerator a second time since generators can only be used once: they calculate 0, then forget about it and calculate 1 and ends calculating 4, one by one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield is a keyword that is used like return, except the function will return a generator.
+&gt;&gt;&gt; def createGenerator():
+...    mylist = range(3)
+...    for i in mylist:
+...        yield i*i
+...
+&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
+&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
+&lt;generator object createGenerator at 0xb7555c34&gt;
+&gt;&gt;&gt; for i in mygenerator:
+...     print(i)
+0
+1
+4
+Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
+To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
+Then, your code will be run each time the for uses the generator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simply a package: a namespace containing variables and subroutines.
+Each package contains a special array @ISA which contains a list of that class's parent class
+All class inherit from UNIVERSAL class which is implemented by Pelr core, has isa(), can(), VERSION()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Subroutine. Declared with sub.
+  sub save {
+      my $self = shift;
+      open my $fh, '&gt;', $self-&gt;path() or die $!;
+      print {$fh} $self-&gt;data()       or die $!;
+      close $fh                       or die $!;
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inheritance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ISA
+call methods that object isn't defined, Perl will look that method in any parent classes it may have.
+  package File::MP3;
+  use parent 'File';    # sets @File::MP3::ISA = ('File');
+  my $mp3 = File::MP3-&gt;new( 'Andvari.mp3', $data );
+  $mp3-&gt;save();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUPER::save($thing);     # FAIL: looks for save() sub in package SUPER
+  SUPER-&gt;save($thing);     # FAIL: looks for save() method in class
+                           #       SUPER
+  $thing-&gt;SUPER::save();   # Okay: looks for save() method in parent
+                           #       classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Data Structure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,7 +1233,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,19 +1303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1479,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CU17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1678,7 +1885,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1688,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1729,41 +1936,60 @@
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:6" ht="55.8" customHeight="1">
+    <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="2:6" ht="95.4" customHeight="1">
+    <row r="5" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" ht="95.4" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" ht="100.8">
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" ht="100.8">
+      <c r="B7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="57.6">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="2:6" ht="57.6">
+      <c r="B8" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="100.8">
+      <c r="B9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -1772,11 +1998,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="75" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="158.4">
+      <c r="B3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="172.8">
+      <c r="B4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="156.6" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="158.4">
+      <c r="B6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1902,7 +2221,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,7 +2310,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2001,13 +2320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2139,10 +2455,26 @@
         <v>124</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10">
-    <cfRule type="expression" dxfId="8" priority="3">
+  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10 C12">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2219,10 +2551,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2274,12 +2606,14 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="331.2">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -2287,105 +2621,105 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="28.8">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="1:6" ht="408.6" customHeight="1">
+      <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="100.8">
-      <c r="B7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="86.4">
-      <c r="A8" s="1"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+    <row r="9" spans="1:6" ht="100.8">
+      <c r="B9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="86.4">
       <c r="A10" s="1"/>
       <c r="B10" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="259.8" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="43.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="86.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
@@ -2393,80 +2727,80 @@
     <row r="15" spans="1:6" ht="43.2">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="86.4">
       <c r="A16" s="1"/>
       <c r="B16" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="57.6">
+    <row r="17" spans="1:6" ht="43.2">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="230.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="86.4">
+    <row r="19" spans="1:6" ht="57.6">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="115.2">
+    <row r="20" spans="1:6" ht="230.4">
       <c r="A20" s="1"/>
       <c r="B20" s="20" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="57.6">
+    <row r="21" spans="1:6" ht="86.4">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2475,74 +2809,80 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
+    <row r="23" spans="1:6" ht="115.2">
+      <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="43.2">
+    <row r="24" spans="1:6" ht="57.6">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="115.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="43.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="360">
+    <row r="28" spans="1:6" ht="115.2">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2551,32 +2891,55 @@
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="360">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
-      <c r="B30" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
+    <row r="31" spans="1:6" ht="360">
+      <c r="A31" s="1"/>
+      <c r="B31" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="360">
+      <c r="A33" s="1"/>
+      <c r="B33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F6 A8:F30">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A1:F8 A10:F33 C9">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2759,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F13"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2855,6 +3218,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="14" spans="2:6" ht="297" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,10 +423,6 @@
   </si>
   <si>
     <t>n/a, pass by value only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generators</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -721,7 +717,393 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Decorators</t>
+    <t>define functions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def fib(n):
+  a,b=0,1
+  …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from subprocess import call
+call(["ls","-l"])
+os.system("ls -l")
+stream=os.popen("ls -l")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void f(int n) { return n * 2; }
+void g(Action&lt;int&gt; a, int n) { return a(n); }
+// Now call g and pass f:
+g(f, 10); // = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first-class object
+“First class” means you can operate on them in the usual manner. Most of the times, this just means you can pass these first-class citizens as arguments to functions, or return them from functions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Referenc: 当一个对象的所有引用都是 weak ref，garbage collection 会销毁对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#!/usr/bin/python
+class Employee:
+   'Common base class for all employees'
+   empCount = 0
+   def __init__(self, name, salary):
+      self.name = name
+      self.salary = salary
+      Employee.empCount += 1
+   def displayCount(self):
+     print "Total Employee %d" % Employee.empCount
+   def displayEmployee(self):
+      print "Name : ", self.name,  ", Salary: ", self.salary
+"This would create first object of Employee class"
+emp1 = Employee("Zara", 2000)
+"This would create second object of Employee class"
+emp2 = Employee("Manni", 5000)
+emp1.displayEmployee()
+emp2.displayEmployee()
+print "Total Employee %d" % Employee.empCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void PyOS_AfterFork()
+int PyOS_CheckStack()
+int Py_AtExit(void (*func) ())
+void Py_FatalError(const char *message)
+void Py_Exit(int status)
+int Py_AtExit(void (*func) ())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flavors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpython, Jython, PyPy, IronPython
+ Except for some standard modules, Jython programs use Java classes instead of Python modules. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void* PyMem_Malloc(size_t n)
+void* PyMem_Realloc(void *p, size_t n)
+void pyMem_Free(void *p)
+TYPE* PyMem_New(TYPE, size_t n)
+TYPE* PyMem_Resize(void *p, TYPE, size_t n)
+void PyMem_Del(void *p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time.sleep(secs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os.random()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiprocessing
+from multiprocessing import Process, Lock
+using subprocesses instead of threads
+p=Process(targe=f, args(num,arr))
+p.start()  p.join() p.run() p.is_alive()  p.live()
+Synchronization:
+lock： l=Lock()  l.acquire()  l.release()
+Sharing state, Shared memory:
+from multiprocessing impport Process,Value,array
+Exchaning object:
+from multiprocessing import Process, Queue, Pope
+q=Queue()  q.put()  q.get()
+parent_conn, child_conn= Pipe()
+child_conn.send([1,2,3])
+print parent_conn.recv()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lib/threading.py
+t.start()
+t.run()
+t.join()
+wait()  notify()  notifyAll() release()
+from threading import Condition
+# Consume one item
+cv.acquire()
+while not an_item_is_available():
+    cv.wait()
+get_an_available_item()
+cv.release()
+# Produce one item
+cv.acquire()
+make_an_item_available()
+cv.notify()
+cv.release()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">class unittest.TestCase(methodName='runTest')
+setUp(), teardown(), setUpClass(), tearDownClass(),run(),assertTure(), assertEqual(), assertIs(),fail(), addCleanUp(), doCleanUp()..
+class unittest.TestSuite(tests=())
+addTest(test),run(),debug()
+class unittest.TestLoader
+loadTestsFromTestCase(testCaseClass)
+loadTestsFromModule(module)
+class unittest.TestResult
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import unittest
+class Test(unittest.TestCase):
+    @classmethod
+    def setUpClass(cls):
+        cls._connection = createExpensiveConnectionObject()
+    @classmethod
+    def tearDownClass(cls):
+        cls._connection.destroy()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singal Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高阶函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def f(x):
+    return x + 3
+def g(function, x):
+    return function(x) * function(x)
+print g(f, 7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you create a list, you can read its items one by one, and it's called iteration:
+&gt;&gt;&gt; mylist = [1, 2, 3]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+1
+2
+3
+Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
+&gt;&gt;&gt; mylist = [x*x for x in range(3)]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+0
+1
+4
+Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterables
+Store all the values in memeory
+Can read as much as you wish
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield is a keyword that is used like return, except the function will return a generator.
+&gt;&gt;&gt; def createGenerator():
+...    mylist = range(3)
+...    for i in mylist:
+...        yield i*i
+...
+&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
+&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
+&lt;generator object createGenerator at 0xb7555c34&gt;
+&gt;&gt;&gt; for i in mygenerator:
+...     print(i)
+0
+1
+4
+Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
+To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
+Then, your code will be run each time the for uses the generator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inheritance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ISA
+call methods that object isn't defined, Perl will look that method in any parent classes it may have.
+  package File::MP3;
+  use parent 'File';    # sets @File::MP3::ISA = ('File');
+  my $mp3 = File::MP3-&gt;new( 'Andvari.mp3', $data );
+  $mp3-&gt;save();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SUPER::save($thing);     # FAIL: looks for save() sub in package SUPER
+  SUPER-&gt;save($thing);     # FAIL: looks for save() method in class
+                           #       SUPER
+  $thing-&gt;SUPER::save();   # Okay: looks for save() method in parent
+                           #       classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">simply a package: a namespace containing variables and subroutines.
+Each package contains a special array @ISA which contains a list of that class's parent class
+All class inherit from UNIVERSAL class which is implemented by Pelr core, has isa(), can(), VERSION()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Subroutine. Declared with sub.
+Package file;
+  sub save {
+      my $self = shift;
+      open my $fh, '&gt;', $self-&gt;path() or die $!;
+      print {$fh} $self-&gt;data()       or die $!;
+      close $fh                       or die $!;
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simply a Data Structure
+package file;
+  sub new {
+      my $class = shift;
+      my $self = {};
+      bless $self, $class;
+      $self-&gt;_initialize();
+      return $self;
+  }
+{} creates a reference to an empty anonymous hash.
+Bless tells the thingy referenced by REF that it is now an object in the CLASSNAME package. If CLASSNAME is ommitted, the current package is used.
+匿名hash $self 是 $class的一个对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A function which returns an iterator.
+Generators are iterators, but you can only iterate over them once. It's because they do not store all the values in memory, they generate the values on the fly:
+&gt;&gt;&gt; mygenerator = (x*x for x in range(3))
+&gt;&gt;&gt; for i in mygenerator:
+...    print(i)
+0
+1
+4
+&gt;&gt;&gt; for i in mygenerator::
+...   print(i)
+...
+&gt;&gt;&gt;
+It just the same except you used () instead of []. BUT, you can not perform for i in mygenerator a second time since generators can only be used once: they calculate 0, then forget about it and calculate 1 and ends calculating 4, one by one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generators
+generator the value on the fly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval
+eval evaluates an expression (not a statement) and returns the value that expression produces.
+Buildin function
+eval(expression[, globals[, locals]])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; b='1'
+&gt;&gt;&gt; b
+'1'
+&gt;&gt;&gt; eval(b)
+1
+&gt;&gt;&gt; b='1+1'
+&gt;&gt;&gt; eval(b)
+2
+&gt;&gt;&gt; eval("print 1")
+&gt;&gt;&gt; SyntaxError: invalid syntax
+        ^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec_stmt ::=  "exec" or_expr ["in" expression ["," expression]]
+&gt;&gt;&gt; s="print 1"
+&gt;&gt;&gt; exec s
+1
+&gt;&gt;&gt; b='1+1'
+&gt;&gt;&gt; eval(b)
+2
+&gt;&gt;&gt; exec b
+&gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec
+exec is a statement, not an expression. It compiles and immediately evaluates a statement or set of statement contained in a string.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -744,376 +1126,27 @@
 @makeitalic
 def hello():
     return "hello world"
-print hello() ## returns &lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>define functions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def fib(n):
-  a,b=0,1
-  …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from subprocess import call
-call(["ls","-l"])
-os.system("ls -l")
-stream=os.popen("ls -l")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void f(int n) { return n * 2; }
-void g(Action&lt;int&gt; a, int n) { return a(n); }
-// Now call g and pass f:
-g(f, 10); // = 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first-class object
-“First class” means you can operate on them in the usual manner. Most of the times, this just means you can pass these first-class citizens as arguments to functions, or return them from functions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weak Referenc: 当一个对象的所有引用都是 weak ref，garbage collection 会销毁对象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A function which returns an iterator.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; b='1'
-&gt;&gt;&gt; b
-'1'
-&gt;&gt;&gt; eval(b)
-1
-&gt;&gt;&gt; b='1+1'
-&gt;&gt;&gt; eval(b)
-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exec
- is a statement, not an expression. It compiles and immediately evaluates a statement or set of statement contained in a string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; s="print 1"
-&gt;&gt;&gt; exec s
-1
-&gt;&gt;&gt; b='1+1'
-&gt;&gt;&gt; eval(b)
-2
-&gt;&gt;&gt; exec b
-&gt;&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval
-eval evaluates an expression (not a statement) and returns the value that expression produces.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#!/usr/bin/python
-class Employee:
-   'Common base class for all employees'
-   empCount = 0
-   def __init__(self, name, salary):
-      self.name = name
-      self.salary = salary
-      Employee.empCount += 1
-   def displayCount(self):
-     print "Total Employee %d" % Employee.empCount
-   def displayEmployee(self):
-      print "Name : ", self.name,  ", Salary: ", self.salary
-"This would create first object of Employee class"
-emp1 = Employee("Zara", 2000)
-"This would create second object of Employee class"
-emp2 = Employee("Manni", 5000)
-emp1.displayEmployee()
-emp2.displayEmployee()
-print "Total Employee %d" % Employee.empCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
+print hello() ## returns &lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;
+&gt;&gt;&gt;hello
+&lt;function wrapped at 0x02A05830&gt;
+&gt;&gt;&gt;hello()
+'&lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;'
+#makeitalic(fn)
+&gt;&gt;&gt;fn
+&lt;function hello at 0x02AF55B0&gt;
+&gt;&gt;&gt;fn()
+'hello world'
+#makebold(fn)
+&gt;&gt;&gt;fn
+&lt;function wrapped at 0x02A057F0&gt;
+&gt;&gt;&gt;fn()
+'&lt;i&gt;hello world&lt;/i&gt;'
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>void PyOS_AfterFork()
-int PyOS_CheckStack()
-int Py_AtExit(void (*func) ())
-void Py_FatalError(const char *message)
-void Py_Exit(int status)
-int Py_AtExit(void (*func) ())</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flavors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Cpython, Jython, PyPy, IronPython
- Except for some standard modules, Jython programs use Java classes instead of Python modules. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thread safe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void* PyMem_Malloc(size_t n)
-void* PyMem_Realloc(void *p, size_t n)
-void pyMem_Free(void *p)
-TYPE* PyMem_New(TYPE, size_t n)
-TYPE* PyMem_Resize(void *p, TYPE, size_t n)
-void PyMem_Del(void *p)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time.sleep(secs)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>os.random()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiprocessing
-from multiprocessing import Process, Lock
-using subprocesses instead of threads
-p=Process(targe=f, args(num,arr))
-p.start()  p.join() p.run() p.is_alive()  p.live()
-Synchronization:
-lock： l=Lock()  l.acquire()  l.release()
-Sharing state, Shared memory:
-from multiprocessing impport Process,Value,array
-Exchaning object:
-from multiprocessing import Process, Queue, Pope
-q=Queue()  q.put()  q.get()
-parent_conn, child_conn= Pipe()
-child_conn.send([1,2,3])
-print parent_conn.recv()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lib/threading.py
-t.start()
-t.run()
-t.join()
-wait()  notify()  notifyAll() release()
-from threading import Condition
-# Consume one item
-cv.acquire()
-while not an_item_is_available():
-    cv.wait()
-get_an_available_item()
-cv.release()
-# Produce one item
-cv.acquire()
-make_an_item_available()
-cv.notify()
-cv.release()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">class unittest.TestCase(methodName='runTest')
-setUp(), teardown(), setUpClass(), tearDownClass(),run(),assertTure(), assertEqual(), assertIs(),fail(), addCleanUp(), doCleanUp()..
-class unittest.TestSuite(tests=())
-addTest(test),run(),debug()
-class unittest.TestLoader
-loadTestsFromTestCase(testCaseClass)
-loadTestsFromModule(module)
-class unittest.TestResult
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>import unittest
-class Test(unittest.TestCase):
-    @classmethod
-    def setUpClass(cls):
-        cls._connection = createExpensiveConnectionObject()
-    @classmethod
-    def tearDownClass(cls):
-        cls._connection.destroy()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singal Handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高阶函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def f(x):
-    return x + 3
-def g(function, x):
-    return function(x) * function(x)
-print g(f, 7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When you create a list, you can read its items one by one, and it's called iteration:
-&gt;&gt;&gt; mylist = [1, 2, 3]
-&gt;&gt;&gt; for i in mylist:
-...    print(i)
-1
-2
-3
-Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
-&gt;&gt;&gt; mylist = [x*x for x in range(3)]
-&gt;&gt;&gt; for i in mylist:
-...    print(i)
-0
-1
-4
-Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterables
-Store all the values in memeory
-Can read as much as you wish
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generators are iterators, but you can only iterate over them once. It's because they do not store all the values in memory, they generate the values on the fly:
-&gt;&gt;&gt; mygenerator = (x*x for x in range(3))
-&gt;&gt;&gt; for i in mygenerator:
-...    print(i)
-0
-1
-4
-It just the same except you used () instead of []. BUT, you can not perform for i in mygenerator a second time since generators can only be used once: they calculate 0, then forget about it and calculate 1 and ends calculating 4, one by one.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yield is a keyword that is used like return, except the function will return a generator.
-&gt;&gt;&gt; def createGenerator():
-...    mylist = range(3)
-...    for i in mylist:
-...        yield i*i
-...
-&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
-&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
-&lt;generator object createGenerator at 0xb7555c34&gt;
-&gt;&gt;&gt; for i in mygenerator:
-...     print(i)
-0
-1
-4
-Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
-To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
-Then, your code will be run each time the for uses the generator.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>simply a package: a namespace containing variables and subroutines.
-Each package contains a special array @ISA which contains a list of that class's parent class
-All class inherit from UNIVERSAL class which is implemented by Pelr core, has isa(), can(), VERSION()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simply a Subroutine. Declared with sub.
-  sub save {
-      my $self = shift;
-      open my $fh, '&gt;', $self-&gt;path() or die $!;
-      print {$fh} $self-&gt;data()       or die $!;
-      close $fh                       or die $!;
-  }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inheritance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @ISA
-call methods that object isn't defined, Perl will look that method in any parent classes it may have.
-  package File::MP3;
-  use parent 'File';    # sets @File::MP3::ISA = ('File');
-  my $mp3 = File::MP3-&gt;new( 'Andvari.mp3', $data );
-  $mp3-&gt;save();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  SUPER::save($thing);     # FAIL: looks for save() sub in package SUPER
-  SUPER-&gt;save($thing);     # FAIL: looks for save() method in class
-                           #       SUPER
-  $thing-&gt;SUPER::save();   # Okay: looks for save() method in parent
-                           #       classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simply a Data Structure</t>
+    <t>Decorators
+动态的改变 函数和方法 的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1897,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1931,17 +1964,17 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -1950,47 +1983,47 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2002,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2034,55 +2067,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="75" customHeight="1">
+    <row r="2" spans="2:6" ht="384" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="158.4">
+      <c r="D2" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="172.8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2143,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
@@ -2154,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
@@ -2173,10 +2206,10 @@
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -2189,10 +2222,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2396,7 +2429,7 @@
     <row r="5" spans="1:6" s="19" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
@@ -2415,13 +2448,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2431,7 +2464,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2441,7 +2474,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -2449,26 +2482,26 @@
     </row>
     <row r="10" spans="1:6" ht="28.8">
       <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2584,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2582,25 +2615,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2">
+    <row r="2" spans="1:6" ht="172.8">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="129.6">
+    <row r="3" spans="1:6" ht="172.8">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -2609,88 +2642,88 @@
     <row r="4" spans="1:6" ht="331.2">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="338.4" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="408.6" customHeight="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="8" spans="1:6" ht="409.05" customHeight="1">
+      <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="100.8">
-      <c r="B9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="86.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>98</v>
+    <row r="9" spans="1:6" ht="70.8" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="100.8">
+      <c r="B10" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="259.8" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="86.4">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -2727,10 +2760,10 @@
     <row r="15" spans="1:6" ht="43.2">
       <c r="A15" s="1"/>
       <c r="B15" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -2739,10 +2772,10 @@
     <row r="16" spans="1:6" ht="86.4">
       <c r="A16" s="1"/>
       <c r="B16" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -2751,10 +2784,10 @@
     <row r="17" spans="1:6" ht="43.2">
       <c r="A17" s="1"/>
       <c r="B17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -2763,7 +2796,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -2773,10 +2806,10 @@
     <row r="19" spans="1:6" ht="57.6">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2785,10 +2818,10 @@
     <row r="20" spans="1:6" ht="230.4">
       <c r="A20" s="1"/>
       <c r="B20" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2797,10 +2830,10 @@
     <row r="21" spans="1:6" ht="86.4">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -2809,7 +2842,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -2819,10 +2852,10 @@
     <row r="23" spans="1:6" ht="115.2">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2831,10 +2864,10 @@
     <row r="24" spans="1:6" ht="57.6">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2843,10 +2876,10 @@
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -2854,10 +2887,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="4"/>
@@ -2867,10 +2900,10 @@
     <row r="27" spans="1:6" ht="43.2">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -2879,10 +2912,10 @@
     <row r="28" spans="1:6" ht="115.2">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -2904,42 +2937,30 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="360">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
-      <c r="B31" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="360">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="360">
-      <c r="A33" s="1"/>
-      <c r="B33" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F8 A10:F33 C9">
-    <cfRule type="expression" dxfId="6" priority="2">
+  <conditionalFormatting sqref="C10 A11:F32 A1:F9">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2986,28 +3007,28 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="56.4" customHeight="1">
       <c r="C4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3018,7 +3039,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3064,55 +3085,55 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3158,83 +3179,83 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -754,10 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,24 +937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When you create a list, you can read its items one by one, and it's called iteration:
-&gt;&gt;&gt; mylist = [1, 2, 3]
-&gt;&gt;&gt; for i in mylist:
-...    print(i)
-1
-2
-3
-Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
-&gt;&gt;&gt; mylist = [x*x for x in range(3)]
-&gt;&gt;&gt; for i in mylist:
-...    print(i)
-0
-1
-4
-Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Iterables
 Store all the values in memeory
 Can read as much as you wish
@@ -1061,11 +1039,6 @@
 ...
 &gt;&gt;&gt;
 It just the same except you used () instead of []. BUT, you can not perform for i in mygenerator a second time since generators can only be used once: they calculate 0, then forget about it and calculate 1 and ends calculating 4, one by one.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generators
-generator the value on the fly.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1147,6 +1120,40 @@
   <si>
     <t>Decorators
 动态的改变 函数和方法 的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield
+创建 generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generators
+生成 迭代器， 迭代器只能使用一次。
+generator the value on the fly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you create a list, you can read its items one by one, and it's called iteration:
+&gt;&gt;&gt; mylist = [1, 2, 3]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+1
+2
+3
+Mylist is an iterable. When you use a list comprehension, you create a list, and so an iterable:
+&gt;&gt;&gt; mylist = [x*x for x in range(3)]
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+0
+1
+4
+&gt;&gt;&gt; for i in mylist:
+...    print(i)
+0
+1
+4
+Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1964,17 +1971,17 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -1983,41 +1990,41 @@
         <v>84</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2072,44 +2079,44 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2490,18 +2497,18 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2586,15 +2593,15 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.77734375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" customWidth="1"/>
+    <col min="3" max="3" width="129" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2618,10 +2625,10 @@
     <row r="2" spans="1:6" ht="172.8">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -2630,22 +2637,22 @@
     <row r="3" spans="1:6" ht="172.8">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="331.2">
+    <row r="4" spans="1:6" ht="408.6" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -2654,10 +2661,10 @@
     <row r="5" spans="1:6" ht="338.4" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -2666,7 +2673,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -2676,10 +2683,10 @@
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2688,10 +2695,10 @@
     <row r="8" spans="1:6" ht="409.05" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -2842,7 +2849,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -2948,10 +2955,10 @@
     <row r="32" spans="1:6" ht="360">
       <c r="A32" s="1"/>
       <c r="B32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -3228,23 +3235,23 @@
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,6 +1154,40 @@
 1
 4
 Everything you can use "for... in..." on is an iterable: lists, strings, files... These iterables are handy because you can read them as much as you wish, but you store all the values in memory and it's not always what you want when you have a lot of values.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce(function, iterable[, initializer])
+Apply function of two arguments cumulatively to the items of iterable, from left to right, so as to reduce the iterable to a single value. For example, reduce(lambda x, y: x+y, [1, 2, 3, 4, 5]) calculates ((((1+2)+3)+4)+5). The left argument, x, is the accumulated value and the right argument, y, is the update value from the iterable. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">map(function, iterable, ...)
+Apply function to every item of iterable and return a list of the results. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter(function, iterable)
+Construct a list from those elements of iterable for which function returns true. iterable may be either a sequence, a container which supports iteration, or an iterator. 
+Note that filter(function, iterable) is equivalent to [item for item in iterable if function(item)] if function is not None and [item for item in iterable if item] if function is None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter()
+过滤出 iterable 中的元素对 function 为true的 元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map()
+Python内建的三个最常用的高阶函数是：map()、reduce()和filter()
+这三个函数所做的事情 —— 以及谓之为“高阶”（higher-order）的原因 —— 是接受其它函数作为它们的（部分）参数。还有别的一些不属于内置的高阶函数，还会返回函数对象。
+高阶函数：currying
+将迭代元素带入 function中， 返回结果做为list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduce()
+function 只接收两个变量。 X 是累加器， Y是从 iterable 中取得的变化值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2591,10 +2625,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2625,57 +2659,59 @@
     <row r="2" spans="1:6" ht="172.8">
       <c r="A2" s="1"/>
       <c r="B2" s="20" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="172.8">
+    <row r="3" spans="1:6" ht="86.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="408.6" customHeight="1">
+    <row r="4" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="338.4" customHeight="1">
+    <row r="5" spans="1:6" ht="172.8">
       <c r="A5" s="1"/>
       <c r="B5" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="172.8">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -2683,198 +2719,198 @@
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="409.05" customHeight="1">
+    <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="70.8" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="B9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="100.8">
-      <c r="B10" s="21" t="s">
-        <v>147</v>
+    <row r="10" spans="1:6" ht="408.6" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="86.4">
+        <v>176</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="409.05" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="20" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:6" ht="70.8" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
+    <row r="13" spans="1:6" ht="100.8">
+      <c r="B13" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="43.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="86.4">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="43.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
-      <c r="B17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="43.2">
       <c r="A18" s="1"/>
       <c r="B18" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="57.6">
+    <row r="19" spans="1:6" ht="86.4">
       <c r="A19" s="1"/>
       <c r="B19" s="20" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="230.4">
+    <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="1"/>
       <c r="B20" s="20" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="86.4">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="57.6">
       <c r="A22" s="1"/>
       <c r="B22" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="115.2">
+    <row r="23" spans="1:6" ht="230.4">
       <c r="A23" s="1"/>
       <c r="B23" s="20" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="57.6">
+    <row r="24" spans="1:6" ht="86.4">
       <c r="A24" s="1"/>
       <c r="B24" s="20" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2883,90 +2919,124 @@
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>89</v>
-      </c>
+    <row r="26" spans="1:6" ht="115.2">
+      <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="43.2">
+    <row r="27" spans="1:6" ht="57.6">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="115.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="43.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="115.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="360">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
-      <c r="B32" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
     </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="360">
+      <c r="A35" s="1"/>
+      <c r="B35" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C10 A11:F32 A1:F9">
+  <conditionalFormatting sqref="C13 A14:F35 A1:F12">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="202">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,6 +1188,10 @@
   <si>
     <t>reduce()
 function 只接收两个变量。 X 是累加器， Y是从 iterable 中取得的变化值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数式编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2628,7 +2632,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2657,7 +2661,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.8">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B2" s="20" t="s">
         <v>199</v>
       </c>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="207">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1192,6 +1192,33 @@
   </si>
   <si>
     <t>函数式编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl.class
+Watir::Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.methods
+Integer.methods(false)
+["yaml_tag_subclasses?", "induced_from"]
+Integer.instance_methods(false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array.new
+Array.new(2)
+Array.new(5, "A")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> File.open(yourfile, 'w') { |file| file.write("your text") } 
+When a block is passed to File.open, the File object will be automatically closed when the block terminates.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1338,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1410,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2068,7 +2101,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2160,7 +2193,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2173,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2225,6 +2258,9 @@
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2400,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2410,7 +2446,7 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2443,7 +2479,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2454,10 +2490,12 @@
         <v>13</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="24" t="s">
+        <v>202</v>
+      </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="201.6">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -2468,17 +2506,23 @@
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="24" t="s">
+        <v>203</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="230.4">
+      <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="24" t="s">
+        <v>206</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
@@ -2631,7 +2675,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2710,7 +2754,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="172.8">
+    <row r="6" spans="1:6" ht="158.4">
       <c r="A6" s="1"/>
       <c r="B6" s="20" t="s">
         <v>189</v>
@@ -2932,7 +2976,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="115.2">
+    <row r="26" spans="1:6" ht="100.8">
       <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
         <v>95</v>
@@ -2980,7 +3024,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="43.2">
+    <row r="30" spans="1:6" ht="28.8">
       <c r="A30" s="1"/>
       <c r="B30" s="20" t="s">
         <v>91</v>
@@ -3028,7 +3072,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="360">
+    <row r="35" spans="1:6" ht="345.6">
       <c r="A35" s="1"/>
       <c r="B35" s="20" t="s">
         <v>149</v>
@@ -3043,7 +3087,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13 A14:F35 A1:F12">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3122,7 +3166,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3216,7 +3260,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3333,12 +3377,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -1162,11 +1162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">map(function, iterable, ...)
-Apply function to every item of iterable and return a list of the results. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>filter(function, iterable)
 Construct a list from those elements of iterable for which function returns true. iterable may be either a sequence, a container which supports iteration, or an iterator. 
 Note that filter(function, iterable) is equivalent to [item for item in iterable if function(item)] if function is not None and [item for item in iterable if item] if function is None</t>
@@ -1219,6 +1214,18 @@
   <si>
     <t xml:space="preserve"> File.open(yourfile, 'w') { |file| file.write("your text") } 
 When a block is passed to File.open, the File object will be automatically closed when the block terminates.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map(function, iterable, ...)
+Apply function to every item of iterable and return a list of the results. 
+Map() procedure that performs filtering and sorting 
+reduce(function, iterable[, initializer])
+Apply function of two arguments cumulatively to the items of iterable, from left to right, so as to reduce the iterable to a single value. 
+reduce(lambda x, y: x+y, [1, 2, 3, 4, 5]) calculates ((((1+2)+3)+4)+5)
+Reduce() procedure that performs a summary operation 
+filter(function, iterable)
+Construct a list from those elements of iterable for which function returns true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2260,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2436,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2491,11 +2498,11 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="201.6">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="158.4">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -2507,13 +2514,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" ht="230.4">
+    <row r="5" spans="1:6" s="19" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>145</v>
@@ -2521,7 +2528,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2675,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2704,15 +2711,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="172.8">
+    <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -2721,10 +2728,10 @@
     <row r="3" spans="1:6" ht="86.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -2733,7 +2740,7 @@
     <row r="4" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>195</v>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="235">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,16 +336,6 @@
   case 1 {print "1"}
   case 2 {print "2"}
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for w in words: 
-   print w, len(w)
-   break
-   continue
-   pass
-for I in range[5]
-   print I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,25 +646,6 @@
   </si>
   <si>
     <t>Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt; class MyError(Exception):
-...     def __init__(self, value):
-...         self.value = value
-...     def __str__(self):
-...         return repr(self.value)
-...
-&gt;&gt;&gt; try:
-...     raise MyError(2*2)
-... except MyError as e:
-...     print 'My exception occurred, value:', e.value
-...
-My exception occurred, value: 4
-&gt;&gt;&gt; raise MyError('oops!')
-Traceback (most recent call last):
-  File "&lt;stdin&gt;", line 1, in ?
-__main__.MyError: 'oops!'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1042,13 +1013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eval
-eval evaluates an expression (not a statement) and returns the value that expression produces.
-Buildin function
-eval(expression[, globals[, locals]])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;&gt;&gt; b='1'
 &gt;&gt;&gt; b
 '1'
@@ -1060,23 +1024,6 @@
 &gt;&gt;&gt; eval("print 1")
 &gt;&gt;&gt; SyntaxError: invalid syntax
         ^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exec_stmt ::=  "exec" or_expr ["in" expression ["," expression]]
-&gt;&gt;&gt; s="print 1"
-&gt;&gt;&gt; exec s
-1
-&gt;&gt;&gt; b='1+1'
-&gt;&gt;&gt; eval(b)
-2
-&gt;&gt;&gt; exec b
-&gt;&gt;&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exec
-exec is a statement, not an expression. It compiles and immediately evaluates a statement or set of statement contained in a string.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1157,11 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">reduce(function, iterable[, initializer])
-Apply function of two arguments cumulatively to the items of iterable, from left to right, so as to reduce the iterable to a single value. For example, reduce(lambda x, y: x+y, [1, 2, 3, 4, 5]) calculates ((((1+2)+3)+4)+5). The left argument, x, is the accumulated value and the right argument, y, is the update value from the iterable. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>filter(function, iterable)
 Construct a list from those elements of iterable for which function returns true. iterable may be either a sequence, a container which supports iteration, or an iterator. 
 Note that filter(function, iterable) is equivalent to [item for item in iterable if function(item)] if function is not None and [item for item in iterable if item] if function is None</t>
@@ -1217,15 +1159,296 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map(function, iterable, ...)
+    <t xml:space="preserve">reduce(function, iterable[, initializer])
+Apply function of two arguments cumulatively to the items of iterable, from left to right, so as to reduce the iterable to a single value. For example, reduce(lambda x, y: x+y, [1, 2, 3, 4, 5]) calculates ((((1+2)+3)+4)+5). The left argument, x, is the accumulated value and the right argument, y, is the update value from the iterable. 
+Reduce() procedure that performs a summary operation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">map(function, iterable, ...)
 Apply function to every item of iterable and return a list of the results. 
 Map() procedure that performs filtering and sorting 
-reduce(function, iterable[, initializer])
-Apply function of two arguments cumulatively to the items of iterable, from left to right, so as to reduce the iterable to a single value. 
-reduce(lambda x, y: x+y, [1, 2, 3, 4, 5]) calculates ((((1+2)+3)+4)+5)
-Reduce() procedure that performs a summary operation 
-filter(function, iterable)
-Construct a list from those elements of iterable for which function returns true</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import libraries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import sys
+sys.path.append('./Libs')
+import cim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def abc():
+  foo
+if __name__ == '__main__':
+  testAnc()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docstring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; def my_function():
+...     """Do nothing, but document it.
+...
+...     No, really, it doesn't do anything.
+...     """
+...     pass
+...
+&gt;&gt;&gt; print my_function.__doc__
+Do nothing, but document it.
+    No, really, it doesn't do anything.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#this is a comment in Python
+print "Hello World" #This is also a comment in Python
+""" This is an example of a multiline
+comment that spans multiple lines
+...
+"""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; class MyError(Exception):
+...     def __init__(self, value):
+...         self.value = value
+...     def __str__(self):
+...         return repr(self.value)
+...
+&gt;&gt;&gt; try:
+...     raise MyError(2*2)
+... except MyError as e:
+...     print 'My exception occurred, value:', e.value
+... finally:
+...      print "always executed"
+My exception occurred, value: 4
+&gt;&gt;&gt; raise MyError('oops!')
+Traceback (most recent call last):
+  File "&lt;stdin&gt;", line 1, in ?
+__main__.MyError: 'oops!'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec
+exec is a statement, not an expression. It compiles and immediately evaluates a statement or set of statement contained in a string.
+exec: 字符串变量值是 语句，如 ‘print 1’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec_stmt ::=  "exec" or_expr ["in" expression ["," expression]]
+&gt;&gt;&gt; s="print 1"
+&gt;&gt;&gt; exec s
+1
+&gt;&gt;&gt; eval c
+Traceback (most recent call last):
+  File "&lt;stdin&gt;", line 1, in &lt;module&gt;
+  File "&lt;string&gt;", line 1
+    print 133
+&gt;&gt;&gt; b='1+1'
+&gt;&gt;&gt; eval(b)
+2
+&gt;&gt;&gt; exec b
+&gt;&gt;&gt;
+&gt;&gt;&gt; c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eval
+eval evaluates an expression (not a statement) and returns the value that expression produces.
+Buildin function
+eval(expression[, globals[, locals]])
+eval: 字符串变量值是 表达式, 如 ‘1+1’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; import keyword
+&gt;&gt;&gt; print keyword.kwlist
+['and', 'as', 'assert', 'break', 'class', 'continue', 'def', 'del', 'elif', 'else',
+'except', 'exec', 'finally', 'for', 'from', 'global', 'if', 'import', 'in', 'is',
+'lambda', 'not', 'or', 'pass', 'print', 'raise', 'return', 'try', 'while', 'with',
+'yield']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for w in words: 
+   print w, len(w)
+   break
+   continue
+   pass
+for I in range[5]
+   print I
+while 1 &lt;= max:
+   max--
+   pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concatenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> newWord = "hello"+"world"
+ newWord = "hello" "world"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string = "Hello World"
+print ' '.join(reversed(string))
+&gt;&gt;Output:
+d l r o W o l l e H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join/reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str.lower()  str.upper()  str.title()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"a"*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = 'blue,red,green'
+x.split(",")
+['blue', 'red', 'green']
+word = "This is some random text"
+words2 = word.split(" ")
+print words
+['This', 'is', 'some', 'random', 'text']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Strip off newline characters from end of the string
+print string.strip('\n')
+strip()     #removes from both ends
+lstrip()    #removes leading characters (Left-strip)
+rstrip()    #removes trailing characters (Right-strip)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> string[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF009900"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF3F5FBF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#get one char of the word (same as above)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     
+&gt;&gt;&gt; ' '.join(['the', 'cat', 'sat', 'on', 'the', 'mat'])
+'the cat sat on the mat'
+#Let's look at one more example of using the Join method:
+#creating a new list
+&gt;&gt;&gt; music = ["Abba","Rolling Stones","Black Sabbath","Metallica"]
+#Join a list with an empty space
+&gt;&gt;&gt; print ' '.join(music)
+#Join a list with a new line
+&gt;&gt;&gt; print "\n".join(music)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1233,7 +1456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1515,31 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF7F0055"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF009900"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF3F5FBF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1301,7 +1549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1324,17 +1572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1345,7 +1582,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,9 +1637,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,21 +1649,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1805,7 +2046,8 @@
   <dimension ref="A1:CU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1816,7 +2058,7 @@
     <col min="4" max="4" width="30.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="19.21875" style="6" customWidth="1"/>
-    <col min="7" max="99" width="8.88671875" style="22"/>
+    <col min="7" max="99" width="8.88671875" style="21"/>
     <col min="100" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1839,11 +2081,11 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>30</v>
@@ -1863,7 +2105,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>33</v>
@@ -1959,7 +2201,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
@@ -2003,7 +2245,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2049,66 +2291,66 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2120,8 +2362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2157,50 +2400,50 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2213,8 +2456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2261,13 +2505,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>203</v>
+      <c r="E3" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2275,7 +2519,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
@@ -2294,10 +2538,10 @@
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -2310,10 +2554,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2327,10 +2571,10 @@
     </row>
     <row r="10" spans="2:6" ht="52.2" customHeight="1">
       <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -2342,7 +2586,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2356,7 +2600,9 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2387,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1">
+    <row r="3" spans="1:6" ht="172.8">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2641,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
@@ -2431,7 +2677,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2441,17 +2687,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
@@ -2462,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2481,7 +2728,6 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -2497,14 +2743,14 @@
         <v>13</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="24" t="s">
-        <v>201</v>
+      <c r="E3" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="158.4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -2513,30 +2759,30 @@
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="24" t="s">
-        <v>202</v>
+      <c r="E4" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="19" customFormat="1" ht="129.6">
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="24" t="s">
-        <v>205</v>
+      <c r="E5" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>76</v>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -2544,13 +2790,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2560,7 +2806,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2570,44 +2816,163 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="216">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="158.4">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="201.6">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="86.4">
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="144">
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="144">
+      <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="259.2">
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:XFD5 A1:F9 C10 C12">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="A3:XFD5 A1:F9 C1:C36 C38:C1048576">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2627,42 +2992,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2682,20 +3047,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="20" customWidth="1"/>
     <col min="3" max="3" width="129" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2713,37 +3079,37 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="86.4">
+    <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
-        <v>197</v>
+      <c r="B3" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="148.19999999999999" customHeight="1">
+    <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
-        <v>199</v>
+      <c r="B4" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -2751,23 +3117,23 @@
     </row>
     <row r="5" spans="1:6" ht="172.8">
       <c r="A5" s="1"/>
-      <c r="B5" s="20" t="s">
-        <v>186</v>
+      <c r="B5" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="158.4">
+    <row r="6" spans="1:6" ht="259.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
-        <v>189</v>
+      <c r="B6" s="19" t="s">
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -2775,11 +3141,11 @@
     </row>
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="20" t="s">
-        <v>175</v>
+      <c r="B7" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2787,11 +3153,11 @@
     </row>
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="20" t="s">
-        <v>193</v>
+      <c r="B8" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -2799,8 +3165,8 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>174</v>
+      <c r="B9" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -2809,11 +3175,11 @@
     </row>
     <row r="10" spans="1:6" ht="408.6" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
-        <v>192</v>
+      <c r="B10" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -2821,11 +3187,11 @@
     </row>
     <row r="11" spans="1:6" ht="409.05" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
-        <v>191</v>
+      <c r="B11" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -2835,8 +3201,8 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>148</v>
+      <c r="B12" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -2844,20 +3210,20 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="100.8">
-      <c r="B13" s="21" t="s">
-        <v>147</v>
+      <c r="B13" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="86.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
-        <v>97</v>
+      <c r="B14" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -2865,7 +3231,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -2873,11 +3239,11 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -2885,7 +3251,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -2893,11 +3259,11 @@
     </row>
     <row r="18" spans="1:6" ht="43.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
-        <v>142</v>
+      <c r="B18" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -2905,11 +3271,11 @@
     </row>
     <row r="19" spans="1:6" ht="86.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="20" t="s">
-        <v>87</v>
+      <c r="B19" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2917,11 +3283,11 @@
     </row>
     <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -2929,8 +3295,8 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
-      <c r="B21" s="20" t="s">
-        <v>88</v>
+      <c r="B21" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -2939,23 +3305,23 @@
     </row>
     <row r="22" spans="1:6" ht="57.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="20" t="s">
-        <v>136</v>
+      <c r="B22" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="230.4">
+    <row r="23" spans="1:6" ht="259.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="20" t="s">
-        <v>133</v>
+      <c r="B23" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -2963,11 +3329,11 @@
     </row>
     <row r="24" spans="1:6" ht="86.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -2975,8 +3341,8 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
-        <v>171</v>
+      <c r="B25" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -2985,11 +3351,11 @@
     </row>
     <row r="26" spans="1:6" ht="100.8">
       <c r="A26" s="1"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -2997,11 +3363,11 @@
     </row>
     <row r="27" spans="1:6" ht="57.6">
       <c r="A27" s="1"/>
-      <c r="B27" s="20" t="s">
-        <v>107</v>
+      <c r="B27" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3009,11 +3375,11 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -3021,10 +3387,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
@@ -3033,11 +3399,11 @@
     </row>
     <row r="30" spans="1:6" ht="28.8">
       <c r="A30" s="1"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
@@ -3045,11 +3411,11 @@
     </row>
     <row r="31" spans="1:6" ht="115.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -3057,7 +3423,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -3065,7 +3431,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
@@ -3073,7 +3439,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -3081,11 +3447,11 @@
     </row>
     <row r="35" spans="1:6" ht="345.6">
       <c r="A35" s="1"/>
-      <c r="B35" s="20" t="s">
-        <v>149</v>
+      <c r="B35" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
@@ -3094,7 +3460,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13 A14:F35 A1:F12">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3108,7 +3474,8 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3141,28 +3508,28 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="56.4" customHeight="1">
       <c r="C4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3173,7 +3540,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3186,7 +3553,9 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3219,55 +3588,55 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3280,7 +3649,9 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3313,83 +3684,83 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1449,6 +1449,10 @@
 &gt;&gt;&gt; print ' '.join(music)
 #Join a list with a new line
 &gt;&gt;&gt; print "\n".join(music)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditional Expressions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2687,11 +2691,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2932,7 +2936,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="144">
+    <row r="33" spans="1:3" ht="144">
       <c r="B33" t="s">
         <v>228</v>
       </c>
@@ -2940,7 +2944,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="144">
+    <row r="35" spans="1:3" ht="144">
       <c r="B35" t="s">
         <v>230</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
       <c r="B37" t="s">
         <v>232</v>
       </c>
@@ -2956,12 +2960,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="259.2">
+    <row r="39" spans="1:3" ht="259.2">
       <c r="B39" t="s">
         <v>221</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="252">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,11 +467,6 @@
     except ValueError:
         print "Oops!  That was no valid number.  Try again..."
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list comprehensions
-构建list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -672,19 +667,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PEP8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
-print foo
-[2, 4 , 6, 8 ,10]
-range(2,11,2)    
-list(range(2,11,2))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1453,6 +1436,116 @@
   </si>
   <si>
     <t>Conditional Expressions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A package is a collection of modules in directories that give a package hierarchy.
+from my_package.timing.danger.internets import function_of_love
+Package 和 一个有py文件的目录的区别是， package 下必须有 __init__.py, 里面包含 variables/functions/classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A module is a single file (or files) that are imported under one import and used. e.g.
+import my_module
+任何Python 文件都是 Module， module name == 文件base名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEP8
+Google Stype Guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用 Queue module 在 threads 之间交换数据。
+使用 Threading Module， 使用 Threading.Condition 来lock </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in c： v= a &gt; 10 ? b : c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v=b if a &gt; 10 else c
+v=[c,b] [a&gt;10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list comprehensions
+从已经有的 list 构建新的list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
+&gt;&gt;&gt;foo
+[2, 4 , 6, 8 ,10]
+&gt;&gt;&gt; S = [2 * x for x in range(10) if x ** 2 &gt; 3]
+&gt;&gt;&gt; S
+[4, 6, 8, 10, 12, 14, 16, 18]
+&gt;&gt;&gt; range(2,11,2)
+[2, 4, 6, 8, 10] 
+&gt;&gt;&gt; list(range(2,11,2))
+[2, 4, 6, 8, 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(1..100).select{|x| x ** 2 &gt; 3 }.collect{|x| 2 * x}
+module Enumerable
+  def comprehend(&amp;block)
+    return self if block.nil?
+    collect(&amp;block).compact
+  end
+end
+(1..100).comprehend {|x| 2 * x if x ** 2 &gt; 3}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perl6:
+my @s = ($_ * 2 if $_ ** 2 &gt; 3 for ^100);
+my @s = gather { for ^100 { take 2 * $_ if $_ ** 2 &gt; 3 } };</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default Iterator/Operators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes:  for key in adict: ...
+      if key not in adict: ...
+      if obj in alist: ...
+      for line in afile: ...
+      for k, v in dict.iteritems(): ...
+No:   for key in adict.keys(): ...
+      if not adict.has_key(key): ...
+      for line in afile.readlines(): ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefer operator.mul to lambda x, y: x * y.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneline function, 替代 regular(nested) function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1586,7 +1679,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,12 +1755,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2249,7 +2380,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2295,17 +2426,17 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -2314,47 +2445,47 @@
         <v>83</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2404,50 +2535,50 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2461,8 +2592,8 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2509,13 +2640,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2523,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
@@ -2542,10 +2673,10 @@
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -2558,10 +2689,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2581,8 +2712,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="C13" s="14"/>
+    <row r="12" spans="2:6" ht="115.2">
+      <c r="B12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="158.4">
+      <c r="B13" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="C14" s="14"/>
@@ -2590,7 +2734,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2645,7 +2789,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
@@ -2681,7 +2825,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2691,18 +2835,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
@@ -2713,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2748,7 +2892,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2764,21 +2908,21 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2794,13 +2938,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2810,7 +2954,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2820,7 +2964,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -2828,155 +2972,180 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="216">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="158.4">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="201.6">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="86.4">
       <c r="B28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="144">
       <c r="B33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="144">
       <c r="B35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="259.2">
       <c r="B39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="144">
+      <c r="A43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C1:C36 C38:C1048576">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3054,18 +3223,20 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.77734375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="129" customWidth="1"/>
+    <col min="3" max="3" width="111.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3088,13 +3259,13 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3103,10 +3274,10 @@
     <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -3115,10 +3286,10 @@
     <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -3127,10 +3298,10 @@
     <row r="5" spans="1:6" ht="172.8">
       <c r="A5" s="1"/>
       <c r="B5" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -3139,10 +3310,10 @@
     <row r="6" spans="1:6" ht="259.2">
       <c r="A6" s="1"/>
       <c r="B6" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -3151,10 +3322,10 @@
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3163,10 +3334,10 @@
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -3175,7 +3346,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -3185,10 +3356,10 @@
     <row r="10" spans="1:6" ht="408.6" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -3197,10 +3368,10 @@
     <row r="11" spans="1:6" ht="409.05" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3211,7 +3382,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
@@ -3220,22 +3391,26 @@
     </row>
     <row r="13" spans="1:6" ht="100.8">
       <c r="B13" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="86.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="213.6" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="19" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
@@ -3269,10 +3444,10 @@
     <row r="18" spans="1:6" ht="43.2">
       <c r="A18" s="1"/>
       <c r="B18" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -3284,7 +3459,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3293,10 +3468,10 @@
     <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3315,10 +3490,10 @@
     <row r="22" spans="1:6" ht="57.6">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -3327,10 +3502,10 @@
     <row r="23" spans="1:6" ht="259.2">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3339,10 +3514,10 @@
     <row r="24" spans="1:6" ht="86.4">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3351,7 +3526,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
@@ -3373,10 +3548,10 @@
     <row r="27" spans="1:6" ht="57.6">
       <c r="A27" s="1"/>
       <c r="B27" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3385,10 +3560,10 @@
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -3457,19 +3632,305 @@
     <row r="35" spans="1:6" ht="345.6">
       <c r="A35" s="1"/>
       <c r="B35" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13 A14:F35 A1:F12">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:F37 A39:F39 A41:F41 A43:F43 A45:F45 A47:F47 A49:F49 A51:F51 A53:F53 A55:F55 A57:F57 A59:F59 A61:F61 A63:F63 A65:F65 A67:F67 A69:F69">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:F36 A38:F38 A40:F40 A42:F42 A44:F44 A46:F46 A48:F48 A50:F50 A52:F52 A54:F54 A56:F56 A58:F58 A60:F60 A62:F62 A64:F64 A66:F66 A68:F68">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3480,11 +3941,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3498,7 +3959,7 @@
     <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="75" customHeight="1">
+    <row r="1" spans="2:6" ht="75" customHeight="1">
       <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
@@ -3515,41 +3976,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1">
+    <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="56.4" customHeight="1">
+      <c r="C4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="56.4" customHeight="1">
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" ht="57.6">
+      <c r="C5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="57.6">
-      <c r="C5" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="2:6" ht="43.2">
       <c r="B7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
+        <v>136</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3597,55 +4058,55 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3693,83 +4154,83 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="254">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,26 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yield is a keyword that is used like return, except the function will return a generator.
-&gt;&gt;&gt; def createGenerator():
-...    mylist = range(3)
-...    for i in mylist:
-...        yield i*i
-...
-&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
-&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
-&lt;generator object createGenerator at 0xb7555c34&gt;
-&gt;&gt;&gt; for i in mygenerator:
-...     print(i)
-0
-1
-4
-Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
-To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
-Then, your code will be run each time the for uses the generator.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1010,51 +990,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> @f1(arg)
- @f2
- def func(): pass
-equivalent to:
- def func(): pass
- func = f1(arg)(f2(func))
-----
-def makebold(fn):
-    def wrapped():
-        return "&lt;b&gt;" + fn() + "&lt;/b&gt;"
-    return wrapped
-def makeitalic(fn):
-    def wrapped():
-        return "&lt;i&gt;" + fn() + "&lt;/i&gt;"
-    return wrapped
-@makebold
-@makeitalic
-def hello():
-    return "hello world"
-print hello() ## returns &lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;
-&gt;&gt;&gt;hello
-&lt;function wrapped at 0x02A05830&gt;
-&gt;&gt;&gt;hello()
-'&lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;'
-#makeitalic(fn)
-&gt;&gt;&gt;fn
-&lt;function hello at 0x02AF55B0&gt;
-&gt;&gt;&gt;fn()
-'hello world'
-#makebold(fn)
-&gt;&gt;&gt;fn
-&lt;function wrapped at 0x02A057F0&gt;
-&gt;&gt;&gt;fn()
-'&lt;i&gt;hello world&lt;/i&gt;'
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Decorators
 动态的改变 函数和方法 的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield
-创建 generator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1546,6 +1483,97 @@
   </si>
   <si>
     <t>oneline function, 替代 regular(nested) function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yield is a keyword that is used like return, except the function will return a generator.
+&gt;&gt;&gt; def createGenerator():
+...    mylist = range(3)
+...    for i in mylist:
+...        yield i*i
+...
+&gt;&gt;&gt; mygenerator = createGenerator() # create a generator
+&gt;&gt;&gt; print(mygenerator) # mygenerator is an object!
+&lt;generator object createGenerator at 0xb7555c34&gt;
+&gt;&gt;&gt; for i in mygenerator:
+...     print(i)
+0
+1
+4
+Here it's a useless example, but it's handy when you know your function will return a huge set of values that you will only need to read once.
+To master yield, you must understand that when you call the function, the code you have written in the function body does not run. The function only returns the generator object, this is bit tricky :-)
+Then, your code will be run each time the for uses the generator.
+A generator function returns an iterator that yields a value each time it executes a yield statement. After it yields a value, the runtime state of the generator function is suspended until the next value is needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield
+创建 generator
+ A generator uses less memory than a function that creates an entire list of values at once.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The @classmethod form is a function decorator , can be called either on the class c.f() or on instance c().f().</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class C(object):
+    @classmethod
+    def f(cls, arg1, arg2, ...):
+        …
+class unittest.TestCase(methodName='runTest')
+    @classmethod
+    def setUpClass(cls):
+        …
+    @classmethod
+    def tearDownClass(cls):
+        …
+@f1(arg)
+@f2
+def func(): pass
+is equivalent to:
+def func(): pass
+func = f1(arg)(f2(func))
+setupClass=classmethod(cls)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @f1(arg)
+ @f2
+ def func(): pass
+equivalent to:
+ def func(): pass
+ func = f1(arg)(f2(func))
+----
+def makebold(fn):
+    def wrapped():
+        return "&lt;b&gt;" + fn() + "&lt;/b&gt;"
+    return wrapped
+def makeitalic(fn):
+    def wrapped():
+        return "&lt;i&gt;" + fn() + "&lt;/i&gt;"
+    return wrapped
+@makebold
+@makeitalic
+def hello():
+    return "hello world"
+等于: makeitalic(hello) --&gt; makebold(makeitalic(hello))
+print hello() ## returns &lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;
+&gt;&gt;&gt;hello
+&lt;function wrapped at 0x02A05830&gt;
+&gt;&gt;&gt;hello()
+'&lt;b&gt;&lt;i&gt;hello world&lt;/i&gt;&lt;/b&gt;'
+#makeitalic(fn)
+&gt;&gt;&gt;fn
+&lt;function hello at 0x02AF55B0&gt;
+&gt;&gt;&gt;fn()
+'hello world'
+#makebold(fn)
+&gt;&gt;&gt;fn
+&lt;function wrapped at 0x02A057F0&gt;
+&gt;&gt;&gt;fn()
+'&lt;i&gt;hello world&lt;/i&gt;'
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,14 +1791,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2380,7 +2401,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2485,7 +2506,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2535,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
@@ -2546,39 +2567,39 @@
         <v>165</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2646,7 +2667,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2714,18 +2735,18 @@
     </row>
     <row r="12" spans="2:6" ht="115.2">
       <c r="B12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="158.4">
       <c r="B13" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2734,7 +2755,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2789,7 +2810,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>27</v>
@@ -2825,7 +2846,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2837,9 +2858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2857,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2892,7 +2913,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -2908,13 +2929,13 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>140</v>
@@ -2922,7 +2943,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2996,34 +3017,34 @@
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="216">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="158.4">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3036,116 +3057,116 @@
     </row>
     <row r="25" spans="1:3" ht="201.6">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="86.4">
       <c r="B28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="144">
       <c r="B33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="144">
       <c r="B35" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="259.2">
       <c r="B39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C1:C36 C38:C1048576">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3223,11 +3244,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3259,13 +3280,13 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3274,10 +3295,10 @@
     <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -3286,329 +3307,331 @@
     <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="172.8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
-        <v>211</v>
-      </c>
+    <row r="5" spans="1:6" ht="201.6">
+      <c r="A5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="259.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="19" t="s">
-        <v>209</v>
-      </c>
+      <c r="A6" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="19" t="s">
         <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
-        <v>185</v>
+      <c r="A8" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:6" ht="408.6" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="408.6" customHeight="1">
+    <row r="10" spans="1:6" ht="409.05" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="409.05" customHeight="1">
+    <row r="11" spans="1:6" ht="409.2" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="70.8" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="100.8">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:6" ht="70.8" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="100.8">
+      <c r="B14" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="213.6" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="19" t="s">
+    <row r="15" spans="1:6" ht="213.6" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="22" t="s">
+        <v>242</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="43.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="86.4">
+    <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="43.2">
+    <row r="20" spans="1:6" ht="86.4">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="57.6">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="259.2">
+    <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="86.4">
+    <row r="24" spans="1:6" ht="259.2">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="86.4">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="100.8">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="57.6">
+    <row r="27" spans="1:6" ht="100.8">
       <c r="A27" s="1"/>
       <c r="B27" s="19" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="57.6">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="28.8">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B30" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="115.2">
+    <row r="31" spans="1:6" ht="28.8">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="115.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
@@ -3624,47 +3647,47 @@
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="345.6">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
-      <c r="B35" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="345.6">
       <c r="A36" s="1"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="43.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
-      <c r="B37" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
@@ -3672,7 +3695,7 @@
     <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
@@ -3680,7 +3703,7 @@
     <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
@@ -3688,7 +3711,7 @@
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
@@ -3696,7 +3719,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
@@ -3704,7 +3727,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
@@ -3712,7 +3735,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
@@ -3720,7 +3743,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
@@ -3728,7 +3751,7 @@
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -3736,7 +3759,7 @@
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
@@ -3744,7 +3767,7 @@
     <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
@@ -3752,7 +3775,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
@@ -3760,7 +3783,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
@@ -3768,7 +3791,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
@@ -3776,7 +3799,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
@@ -3784,7 +3807,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
@@ -3792,7 +3815,7 @@
     <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
@@ -3800,7 +3823,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
@@ -3808,7 +3831,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="19"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
@@ -3816,7 +3839,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
@@ -3824,7 +3847,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="19"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
@@ -3832,7 +3855,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="19"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
@@ -3840,7 +3863,7 @@
     <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="19"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
@@ -3848,7 +3871,7 @@
     <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="19"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
@@ -3856,7 +3879,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="19"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="6"/>
@@ -3864,7 +3887,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="19"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
@@ -3872,7 +3895,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="19"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
       <c r="F64" s="6"/>
@@ -3880,7 +3903,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="19"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
@@ -3888,7 +3911,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="19"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
@@ -3896,7 +3919,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="19"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
@@ -3904,7 +3927,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="19"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="6"/>
@@ -3912,25 +3935,23 @@
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="19"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
     </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C13 A14:F35 A1:F12">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:F37 A39:F39 A41:F41 A43:F43 A45:F45 A47:F47 A49:F49 A51:F51 A53:F53 A55:F55 A57:F57 A59:F59 A61:F61 A63:F63 A65:F65 A67:F67 A69:F69">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:F36 A38:F38 A40:F40 A42:F42 A44:F44 A46:F46 A48:F48 A50:F50 A52:F52 A54:F54 A56:F56 A58:F58 A60:F60 A62:F62 A64:F64 A66:F66 A68:F68">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="C14 A15:F70 C1:F13 B1:B6 B9:B13 A1:A13">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3999,18 +4020,18 @@
         <v>136</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4106,7 +4127,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4225,12 +4246,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="261">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1574,6 +1574,50 @@
 &gt;&gt;&gt;fn()
 '&lt;i&gt;hello world&lt;/i&gt;'
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set object attribut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list object attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get object attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; class new_class():
+...   def __init__(self, number):
+...     self.multi = int(number) * 2
+...     self.str = str(number)
+... 
+&gt;&gt;&gt; a = new_class(2)
+&gt;&gt;&gt; a.__dict__
+{'multi': 4, 'str': '2'}
+&gt;&gt;&gt; a.__dict__.keys()
+dict_keys(['multi', 'str'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o.__dict__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes: foo(1)
+     foo(1, b=2)
+No:  foo(1, 2)
+Yes: def foo(a, b=None):
+         if b is None:
+             b = []
+No:  def foo(a, b=[]):
+         …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1791,42 +1835,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -2401,7 +2410,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2506,7 +2515,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2599,7 +2608,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2755,7 +2764,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2846,7 +2855,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2856,11 +2865,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3039,7 +3048,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="158.4">
+    <row r="23" spans="1:3" ht="144">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -3077,7 +3086,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="86.4">
+    <row r="28" spans="1:3" ht="72">
       <c r="B28" t="s">
         <v>217</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="144">
+    <row r="33" spans="1:3" ht="129.6">
       <c r="B33" t="s">
         <v>222</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="144">
+    <row r="35" spans="1:3" ht="129.6">
       <c r="B35" t="s">
         <v>224</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="259.2">
+    <row r="39" spans="1:3" ht="230.4">
       <c r="B39" t="s">
         <v>215</v>
       </c>
@@ -3163,10 +3172,39 @@
         <v>247</v>
       </c>
     </row>
+    <row r="46" spans="1:3" ht="144">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="129.6">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C1:C36 C38:C1048576">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3246,7 +3284,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -3951,7 +3989,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C14 A15:F70 C1:F13 B1:B6 B9:B13 A1:A13">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4031,7 +4069,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,7 +4165,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4246,12 +4284,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>Get obj Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>import types;  type(obj)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1618,6 +1614,123 @@
              b = []
 No:  def foo(a, b=[]):
          …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setattr(x, 'foobar', 123)  
+equivalent to x.foobar = 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getattr(x, 'foobar')  
+equivalent to x.foobar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__main__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__doc__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__module__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is the name of the module the method was defined in, or None if unavailable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is the method name (same as im_func.__name__)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is the method’s documentation (same as im_func.__doc__)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__name__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__self__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__func__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_func is also available as __func__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_self as __self__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__init__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__new__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__call__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__dict__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__file__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__base__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__getattr__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__setattr__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__delattr__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__class__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__getitem__()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__del__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__hash__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Top-level script environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import types;  type(obj)
+&gt;&gt;&gt; a=[1,2,3]
+&gt;&gt;&gt; type(a)
+&lt;type 'list'&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2246,164 +2359,164 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -2456,60 +2569,60 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2565,44 +2678,44 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="158.4">
       <c r="B6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2656,13 +2769,13 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="288">
@@ -2670,13 +2783,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2684,29 +2797,29 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="46.8" customHeight="1">
       <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -2714,15 +2827,15 @@
         <v>10</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2731,31 +2844,31 @@
         <v>11</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="52.2" customHeight="1">
       <c r="B10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="115.2">
       <c r="B12" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="158.4">
       <c r="B13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2780,7 +2893,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2813,16 +2926,16 @@
     </row>
     <row r="3" spans="1:6" ht="172.8">
       <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="156.6" customHeight="1">
@@ -2830,21 +2943,21 @@
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2865,11 +2978,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2887,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -2901,58 +3014,58 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="28.8">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="72">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="158.4">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2960,7 +3073,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -2968,13 +3081,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -2984,7 +3097,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2994,7 +3107,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -3002,203 +3115,322 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72">
       <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="216">
       <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="144">
       <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="201.6">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" t="s">
         <v>212</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72">
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="129.6">
       <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="129.6">
       <c r="B35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>226</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="230.4">
       <c r="B39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
       <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B45" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="144">
       <c r="A46" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.2">
+      <c r="A47" t="s">
         <v>255</v>
       </c>
-      <c r="B46" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="43.2">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="129.6">
       <c r="A50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>260</v>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3229,42 +3461,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3318,13 +3550,13 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3333,10 +3565,10 @@
     <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -3345,10 +3577,10 @@
     <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -3356,11 +3588,11 @@
     </row>
     <row r="5" spans="1:6" ht="201.6">
       <c r="A5" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -3368,11 +3600,11 @@
     </row>
     <row r="6" spans="1:6" ht="259.2">
       <c r="A6" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -3380,10 +3612,10 @@
     </row>
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3391,10 +3623,10 @@
     </row>
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -3402,11 +3634,11 @@
     </row>
     <row r="9" spans="1:6" ht="408.6" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -3415,10 +3647,10 @@
     <row r="10" spans="1:6" ht="409.05" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -3427,10 +3659,10 @@
     <row r="11" spans="1:6" ht="409.2" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3439,7 +3671,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -3448,10 +3680,10 @@
     </row>
     <row r="13" spans="1:6" ht="70.8" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -3460,25 +3692,25 @@
     </row>
     <row r="14" spans="1:6" ht="100.8">
       <c r="B14" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="213.6" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>242</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -3493,10 +3725,10 @@
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -3513,10 +3745,10 @@
     <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3525,10 +3757,10 @@
     <row r="20" spans="1:6" ht="86.4">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3537,10 +3769,10 @@
     <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3549,7 +3781,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -3559,10 +3791,10 @@
     <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3571,10 +3803,10 @@
     <row r="24" spans="1:6" ht="259.2">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3583,10 +3815,10 @@
     <row r="25" spans="1:6" ht="86.4">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3595,7 +3827,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -3605,10 +3837,10 @@
     <row r="27" spans="1:6" ht="100.8">
       <c r="A27" s="1"/>
       <c r="B27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -3617,10 +3849,10 @@
     <row r="28" spans="1:6" ht="57.6">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -3629,10 +3861,10 @@
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -3640,10 +3872,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -3653,10 +3885,10 @@
     <row r="31" spans="1:6" ht="28.8">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -3665,10 +3897,10 @@
     <row r="32" spans="1:6" ht="115.2">
       <c r="A32" s="1"/>
       <c r="B32" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -3701,10 +3933,10 @@
     <row r="36" spans="1:6" ht="345.6">
       <c r="A36" s="1"/>
       <c r="B36" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3721,10 +3953,10 @@
     <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="1"/>
       <c r="B38" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -4037,33 +4269,33 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="56.4" customHeight="1">
       <c r="C4" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="43.2">
       <c r="B7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4117,49 +4349,49 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4213,72 +4445,72 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="framework" sheetId="9" r:id="rId9"/>
     <sheet name="Tech" sheetId="10" r:id="rId10"/>
     <sheet name="oo" sheetId="11" r:id="rId11"/>
+    <sheet name="thread" sheetId="12" r:id="rId12"/>
+    <sheet name="file" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="326">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,21 +465,6 @@
         break
     except ValueError:
         print "Oops!  That was no valid number.  Try again..."
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">list=[v,v,v]
-list[0]  list[1:3] list[2:]
-del list[0]
-function:
-cmp(list1,list2)  len(list) max(list) min(list) list(turple)
-methods:
-list.append() list.count() list.extend() list.index() list.insert() list.pop() list.remove() list.reverse()
-list.sort()
-list.pop()
-for i in list: 
-  print i
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,11 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list comprehensions
-从已经有的 list 构建新的list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;foo = [x for x in range(1,11) if (x % 2 ) ==0 ]
 &gt;&gt;&gt;foo
 [2, 4 , 6, 8 ,10]
@@ -1731,6 +1714,197 @@
 &gt;&gt;&gt; a=[1,2,3]
 &gt;&gt;&gt; type(a)
 &lt;type 'list'&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join(timeout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The threading module exposes all the methods of the thread module and provides some additional methods:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>higher-level threading interfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threading.activeCount(): Returns the number of thread objects that are active.
+threading.currentThread(): Returns the number of thread objects in the caller's thread control.
+threading.enumerate(): Returns a list of all thread objects that are currently active.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">list comprehensions
+从已经有的 list 构建新的list
+ like list(frob(x) for x in foo) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于大数据，数据不是全部计算出来在显示，也不是全部放入内存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">def dosomething(callback):
+ size, reportSize = 20000, 1000
+ callback("begin processing {0} items".format(size))
+ for i in range(size):
+  if i % reportSize==0:
+   callback("{0} items processed".format(i))
+def test():
+ def cb(msg):
+  print(msg)
+ dosomething(cb)
+if __name__ == '__main__':
+ test()
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> callback is a function provided by the consumer of an API that the API can then turn around and invoke (calling you back). 
+If I setup a Dr.'s appointment, I can give them my phone number,
+ so they can call me the day before to confirm the appointment. 
+A callback is like that, except instead of just being a phone number, 
+it can be arbitrary instructions like "send me an email at this address,
+and also call my secretary and have her put it in my calendar.
+Callbacks are often used in situations where an action is asynchronous. 
+If you need to call a function, and immediately continue working, 
+you can't sit there wait for its return value to let you know what happened, 
+so you provide a callback. 
+When the function is done completely its asynchronous work it will 
+then invoke your callback with some predetermined arguments (usually some you supply, 
+and some about the status and result of the asynchronous action you requested).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> callback is a function provided by the consumer of an API that the API can then turn around and invoke (calling you back). </t>
+  </si>
+  <si>
+    <t>If I setup a Dr.'s appointment, I can give them my phone number,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so they can call me the day before to confirm the appointment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A callback is like that, except instead of just being a phone number, </t>
+  </si>
+  <si>
+    <t>it can be arbitrary instructions like "send me an email at this address,</t>
+  </si>
+  <si>
+    <t>and also call my secretary and have her put it in my calendar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callbacks are often used in situations where an action is asynchronous. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to call a function, and immediately continue working, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can't sit there wait for its return value to let you know what happened, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so you provide a callback. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the function is done completely its asynchronous work it will </t>
+  </si>
+  <si>
+    <t xml:space="preserve">then invoke your callback with some predetermined arguments (usually some you supply, </t>
+  </si>
+  <si>
+    <t>and some about the status and result of the asynchronous action you requested).</t>
+  </si>
+  <si>
+    <t>Get shell cmd output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&gt;&gt;&gt; p=subprocess.Popen(["file","/build/lodestone710/latest"],stdout=subprocess.PIPE,stderr=subprocess.PIPE)
+&gt;&gt;&gt; out,err=p.communicate()
+&gt;&gt;&gt; out
+"/build/lodestone710/latest: symbolic link to `./130517a'\n"
+&gt;&gt;&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implicit return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have  to 'return ' in function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if caller error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>croak
+You use die when the error is something you or your code didn't do right. You use croak when it's something your caller isn't doing right. die "error: $!" indicates the error is on the line where the error occured. croak "error: $!" indicates the error is on the line where the caller called your code.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Package:
+    def __init__(self):
+        self.files=[]
+    def __enter__(self):
+        return self
+    def  __exit__(self,type,value,traceback):
+        for file in self.files:
+            os.unlink(file)
+with Package() as package_obj:
+    # use package_obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1864,7 +2038,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1943,12 +2117,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2321,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU17"/>
+  <dimension ref="A1:CU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2511,7 +2705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:5">
       <c r="B17" s="9" t="s">
         <v>52</v>
       </c>
@@ -2519,11 +2713,25 @@
         <v>51</v>
       </c>
       <c r="D17" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A14:XFD1048576 A1:XFD12">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2536,7 +2744,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2569,17 +2777,17 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -2588,47 +2796,47 @@
         <v>82</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2638,11 +2846,770 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="9" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="384" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="266.39999999999998" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="215.4" customHeight="1">
+      <c r="B4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="156.6" customHeight="1">
+      <c r="B5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="158.4">
+      <c r="B6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="187.2">
+      <c r="A8" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="76" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="16" customFormat="1" ht="75" customHeight="1">
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="115.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:XFD2 A1:F5 C5:F59 A4:B59">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:6" s="9" customFormat="1" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="9" customFormat="1">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2673,100 +3640,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="384" customHeight="1">
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="266.39999999999998" customHeight="1">
-      <c r="B3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="215.4" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="156.6" customHeight="1">
-      <c r="B5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="158.4">
-      <c r="B6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A11:XFD1048576 A1:XFD9">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20" style="9" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="75" customHeight="1">
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
         <v>16</v>
@@ -2778,18 +3651,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="288">
+    <row r="3" spans="2:6" ht="115.2">
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="117" customHeight="1">
@@ -2797,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>15</v>
@@ -2816,10 +3689,10 @@
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -2832,10 +3705,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2857,18 +3730,18 @@
     </row>
     <row r="12" spans="2:6" ht="115.2">
       <c r="B12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="158.4">
       <c r="B13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>230</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -2877,7 +3750,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD10 A12:XFD18 A20:XFD1048576">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2891,9 +3764,9 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2932,7 +3805,7 @@
         <v>63</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>26</v>
@@ -2968,7 +3841,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2978,11 +3851,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D3:D4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3000,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -3031,11 +3904,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -3051,21 +3924,21 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -3081,13 +3954,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3097,7 +3970,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -3107,7 +3980,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -3115,328 +3988,357 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72">
       <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="216">
       <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="144">
       <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="201.6">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
         <v>211</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72">
       <c r="B28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="129.6">
       <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="129.6">
       <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>225</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="230.4">
       <c r="B39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
         <v>245</v>
       </c>
-      <c r="B45" t="s">
-        <v>247</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="144">
       <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="43.2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="43.2">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="129.6">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>285</v>
+    <row r="74" spans="1:5" ht="158.4">
+      <c r="A74" t="s">
+        <v>312</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E76" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="172.8">
+      <c r="D80" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD5 A1:F9 C1:C36 C38:C1048576">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3517,14 +4419,14 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="111.5546875" customWidth="1"/>
     <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
@@ -3550,13 +4452,13 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3565,10 +4467,10 @@
     <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -3577,10 +4479,10 @@
     <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -3588,11 +4490,11 @@
     </row>
     <row r="5" spans="1:6" ht="201.6">
       <c r="A5" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -3600,11 +4502,11 @@
     </row>
     <row r="6" spans="1:6" ht="259.2">
       <c r="A6" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -3612,10 +4514,10 @@
     </row>
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3623,10 +4525,13 @@
     </row>
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -3634,11 +4539,11 @@
     </row>
     <row r="9" spans="1:6" ht="408.6" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -3647,10 +4552,10 @@
     <row r="10" spans="1:6" ht="409.05" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -3659,10 +4564,10 @@
     <row r="11" spans="1:6" ht="409.2" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -3671,7 +4576,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -3683,7 +4588,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -3692,25 +4597,25 @@
     </row>
     <row r="14" spans="1:6" ht="100.8">
       <c r="B14" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="213.6" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -3745,10 +4650,10 @@
     <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -3760,7 +4665,7 @@
         <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -3769,10 +4674,10 @@
     <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -3791,10 +4696,10 @@
     <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -3803,10 +4708,10 @@
     <row r="24" spans="1:6" ht="259.2">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -3815,10 +4720,10 @@
     <row r="25" spans="1:6" ht="86.4">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -3827,7 +4732,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -3849,10 +4754,10 @@
     <row r="28" spans="1:6" ht="57.6">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -3861,10 +4766,10 @@
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -3933,10 +4838,10 @@
     <row r="36" spans="1:6" ht="345.6">
       <c r="A36" s="1"/>
       <c r="B36" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -3953,10 +4858,10 @@
     <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="1"/>
       <c r="B38" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -3970,10 +4875,16 @@
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="1:6" ht="408.6" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
@@ -4220,8 +5131,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C14 A15:F70 C1:F13 B1:B6 B9:B13 A1:A13">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="C14 C1:F13 B1:B6 B9:B13 A1:A13 A15:F70">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,39 +5180,39 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="56.4" customHeight="1">
       <c r="C4" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="43.2">
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4349,55 +5260,55 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4445,83 +5356,83 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:XFD1048576 A1:XFD8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Tech" sheetId="10" r:id="rId10"/>
     <sheet name="oo" sheetId="11" r:id="rId11"/>
     <sheet name="thread" sheetId="12" r:id="rId12"/>
-    <sheet name="file" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId13"/>
+    <sheet name="file" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="329">
   <si>
     <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1905,6 +1905,31 @@
   </si>
   <si>
     <t>for i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Caller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find out who call this sub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caller(the stack frame number in question)
+caller(1)
+[
+  "DB",
+  "/root/Komodo-IDE-5/lib/support/dbgp/perllib/perl5db.pl",
+  4086,
+  "DB::eval",
+  1,
+  1,
+  undef,
+  undef,
+  0,
+  "\0\0\0\0\0\0\0\0\0\0\0\0",
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3477,50 +3502,6 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="2:6" s="9" customFormat="1" ht="75" customHeight="1">
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" s="9" customFormat="1">
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -3603,11 +3584,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:6" s="9" customFormat="1" ht="75" customHeight="1">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="9" customFormat="1">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -4418,9 +4443,9 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4897,11 +4922,17 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="19"/>
+    <row r="42" spans="1:6" ht="273.60000000000002">
+      <c r="A42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
     </row>

--- a/CheatSheet_ScriptLanguage.xlsx
+++ b/CheatSheet_ScriptLanguage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="15252" windowHeight="7272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sheet3" sheetId="14" r:id="rId13"/>
     <sheet name="file" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519" iterate="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,13 +88,6 @@
   </si>
   <si>
     <t>$hR={k=&gt;v};  $hR-&gt;{k}=v;f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%hash=(key=&gt;'value',key=&gt;'value')
-for $k in (keys %hash) { 
-  print $hash{$k}
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1930,6 +1923,17 @@
   0,
   "\0\0\0\0\0\0\0\0\0\0\0\0",
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%hash=(key=&gt;'value',key=&gt;'value')
+for $k in (keys %hash) { 
+  print $hash{$k}
+}
+$hashRef={a=&gt;b,c=&gt;d}
+for (keys %$hashRef){
+  delete $hashRef-&gt;{$_};
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2578,179 +2582,179 @@
     </row>
     <row r="3" spans="1:6" ht="105" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2802,60 +2806,60 @@
     </row>
     <row r="3" spans="2:6" ht="53.4" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="308.39999999999998" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6" ht="95.4" customHeight="1">
       <c r="B6" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="100.8">
       <c r="B7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="57.6">
       <c r="B8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="100.8">
       <c r="B9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2911,52 +2915,52 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="266.39999999999998" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="215.4" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="156.6" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="158.4">
       <c r="B6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="187.2">
       <c r="A8" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3006,13 +3010,13 @@
     </row>
     <row r="2" spans="1:6" s="16" customFormat="1">
       <c r="A2" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="23"/>
@@ -3022,7 +3026,7 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="23"/>
@@ -3032,7 +3036,7 @@
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="23"/>
@@ -3056,10 +3060,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>4</v>
@@ -3071,10 +3075,10 @@
     <row r="8" spans="1:6" ht="115.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="23"/>
@@ -3515,67 +3519,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3632,9 +3636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3667,13 +3671,13 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="115.2">
@@ -3681,43 +3685,43 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="117" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="144">
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="46.8" customHeight="1">
       <c r="B5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="62.4" customHeight="1">
       <c r="B6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="124.2" customHeight="1">
@@ -3730,10 +3734,10 @@
     </row>
     <row r="8" spans="2:6" ht="124.2" customHeight="1">
       <c r="B8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -3747,26 +3751,26 @@
     </row>
     <row r="10" spans="2:6" ht="52.2" customHeight="1">
       <c r="B10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="115.2">
       <c r="B12" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="158.4">
       <c r="B13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3824,16 +3828,16 @@
     </row>
     <row r="3" spans="1:6" ht="172.8">
       <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="156.6" customHeight="1">
@@ -3841,21 +3845,21 @@
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72">
       <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3898,7 +3902,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -3912,10 +3916,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -3929,41 +3933,41 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="158.4">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" s="18" customFormat="1" ht="129.6">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -3971,7 +3975,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -3979,13 +3983,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -3995,7 +3999,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -4005,7 +4009,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -4013,351 +4017,351 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="72">
       <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="216">
       <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="144">
       <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="201.6">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8">
       <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
         <v>210</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72">
       <c r="B28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="129.6">
       <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="129.6">
       <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="230.4">
       <c r="B39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="28.8">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="144">
       <c r="A43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="144">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="43.2">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="43.2">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="129.6">
       <c r="A50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" t="s">
         <v>262</v>
-      </c>
-      <c r="B56" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" t="s">
         <v>268</v>
-      </c>
-      <c r="B58" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="158.4">
       <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="E76" t="s">
         <v>315</v>
-      </c>
-      <c r="E76" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="172.8">
       <c r="D80" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4388,42 +4392,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4443,7 +4447,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
@@ -4477,13 +4481,13 @@
     </row>
     <row r="2" spans="1:6" ht="250.8" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
@@ -4492,10 +4496,10 @@
     <row r="3" spans="1:6" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
@@ -4504,10 +4508,10 @@
     <row r="4" spans="1:6" ht="112.8" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -4515,11 +4519,11 @@
     </row>
     <row r="5" spans="1:6" ht="201.6">
       <c r="A5" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -4527,11 +4531,11 @@
     </row>
     <row r="6" spans="1:6" ht="259.2">
       <c r="A6" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -4539,10 +4543,10 @@
     </row>
     <row r="7" spans="1:6" ht="408.6" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -4550,13 +4554,13 @@
     </row>
     <row r="8" spans="1:6" ht="338.4" customHeight="1">
       <c r="A8" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -4564,11 +4568,11 @@
     </row>
     <row r="9" spans="1:6" ht="408.6" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -4577,10 +4581,10 @@
     <row r="10" spans="1:6" ht="409.05" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -4589,10 +4593,10 @@
     <row r="11" spans="1:6" ht="409.2" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
@@ -4601,7 +4605,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
@@ -4610,10 +4614,10 @@
     </row>
     <row r="13" spans="1:6" ht="70.8" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -4622,25 +4626,25 @@
     </row>
     <row r="14" spans="1:6" ht="100.8">
       <c r="B14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="213.6" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -4655,10 +4659,10 @@
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -4675,10 +4679,10 @@
     <row r="19" spans="1:6" ht="43.2">
       <c r="A19" s="1"/>
       <c r="B19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -4687,10 +4691,10 @@
     <row r="20" spans="1:6" ht="86.4">
       <c r="A20" s="1"/>
       <c r="B20" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -4699,10 +4703,10 @@
     <row r="21" spans="1:6" ht="43.2">
       <c r="A21" s="1"/>
       <c r="B21" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
@@ -4711,7 +4715,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
@@ -4721,10 +4725,10 @@
     <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="1"/>
       <c r="B23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
@@ -4733,10 +4737,10 @@
     <row r="24" spans="1:6" ht="259.2">
       <c r="A24" s="1"/>
       <c r="B24" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
@@ -4745,10 +4749,10 @@
     <row r="25" spans="1:6" ht="86.4">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
@@ -4757,7 +4761,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -4767,10 +4771,10 @@
     <row r="27" spans="1:6" ht="100.8">
       <c r="A27" s="1"/>
       <c r="B27" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
@@ -4779,10 +4783,10 @@
     <row r="28" spans="1:6" ht="57.6">
       <c r="A28" s="1"/>
       <c r="B28" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
@@ -4791,10 +4795,10 @@
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
@@ -4802,10 +4806,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="4"/>
@@ -4815,10 +4819,10 @@
     <row r="31" spans="1:6" ht="28.8">
       <c r="A31" s="1"/>
       <c r="B31" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -4827,10 +4831,10 @@
     <row r="32" spans="1:6" ht="115.2">
       <c r="A32" s="1"/>
       <c r="B32" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -4863,10 +4867,10 @@
     <row r="36" spans="1:6" ht="345.6">
       <c r="A36" s="1"/>
       <c r="B36" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -4883,10 +4887,10 @@
     <row r="38" spans="1:6" ht="43.2">
       <c r="A38" s="1"/>
       <c r="B38" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
@@ -4902,13 +4906,13 @@
     </row>
     <row r="40" spans="1:6" ht="408.6" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
@@ -4924,14 +4928,14 @@
     </row>
     <row r="42" spans="1:6" ht="273.60000000000002">
       <c r="A42" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
@@ -5211,33 +5215,33 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="56.4" customHeight="1">
       <c r="C4" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6" ht="57.6">
       <c r="C5" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="7" spans="2:6" ht="43.2">
       <c r="B7" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5291,49 +5295,49 @@
     </row>
     <row r="3" spans="2:6" ht="105" customHeight="1">
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="156.6" customHeight="1">
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5387,72 +5391,72 @@
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1">
       <c r="B3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:6" ht="30.6" customHeight="1">
       <c r="B4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="57.6">
       <c r="B12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="297" customHeight="1">
       <c r="B14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
